--- a/media/reports/izolasyon_mono.xlsx
+++ b/media/reports/izolasyon_mono.xlsx
@@ -100,11 +100,11 @@
       <sz val="12"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="8">
@@ -751,13 +751,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -849,12 +849,12 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>4</col>
+      <col>13</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1019175" cy="1162050"/>
+    <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -876,7 +876,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>162</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -901,7 +901,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>143</row>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -926,7 +926,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>124</row>
+      <row>55</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -951,7 +951,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>105</row>
+      <row>70</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -974,9 +974,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>5</col>
       <colOff>0</colOff>
-      <row>86</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -999,9 +999,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>5</col>
       <colOff>0</colOff>
-      <row>67</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -1024,9 +1024,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>5</col>
       <colOff>0</colOff>
-      <row>48</row>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -1049,12 +1049,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>1</col>
       <colOff>0</colOff>
-      <row>29</row>
+      <row>107</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="323850" cy="2952750"/>
+    <ext cx="4286250" cy="3705225"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -1062,156 +1062,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>10</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="323850" cy="2952750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>10</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="323850" cy="2952750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>25</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="323850" cy="2952750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>40</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="323850" cy="2952750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>55</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="323850" cy="2952750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>218</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="4286250" cy="3705225"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1517,7 +1367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O217"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
@@ -1569,7 +1419,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44308.45291121505</v>
+        <v>44248.7603093614</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1616,7 +1466,7 @@
       </c>
       <c r="H3" s="73" t="inlineStr">
         <is>
-          <t>0.219 kg</t>
+          <t>2.762 kg</t>
         </is>
       </c>
       <c r="I3" s="51" t="n"/>
@@ -1628,7 +1478,7 @@
       <c r="K3" s="54" t="n"/>
       <c r="L3" s="75" t="inlineStr">
         <is>
-          <t>50.0 x 70.0 x 72.0</t>
+          <t>100.0 x 120.0 x 72.0</t>
         </is>
       </c>
       <c r="M3" s="53" t="n"/>
@@ -1657,7 +1507,7 @@
       </c>
       <c r="H4" s="73" t="inlineStr">
         <is>
-          <t>1.705 kg</t>
+          <t>43.609 kg</t>
         </is>
       </c>
       <c r="I4" s="51" t="n"/>
@@ -1669,7 +1519,7 @@
       <c r="K4" s="77" t="n"/>
       <c r="L4" s="78" t="inlineStr">
         <is>
-          <t>150.0 x 120.0 x 125.0</t>
+          <t>300.0 x 220.0 x 250.0</t>
         </is>
       </c>
       <c r="O4" s="77" t="n"/>
@@ -1708,7 +1558,7 @@
       <c r="K5" s="77" t="n"/>
       <c r="L5" s="78" t="inlineStr">
         <is>
-          <t>AVK2.5 / 0.0 / 45.0 - 192 Kose</t>
+          <t>TRV4B / 25.0 / 18.0 - 120 Kose</t>
         </is>
       </c>
       <c r="O5" s="77" t="n"/>
@@ -1747,7 +1597,7 @@
       <c r="K6" s="77" t="n"/>
       <c r="L6" s="78" t="inlineStr">
         <is>
-          <t>8.057 kg</t>
+          <t>55.246 kg</t>
         </is>
       </c>
       <c r="O6" s="77" t="n"/>
@@ -1774,7 +1624,7 @@
       </c>
       <c r="H7" s="73" t="inlineStr">
         <is>
-          <t>Al:1.924 //  Cu:0.0kg</t>
+          <t>Al:46.372 //  Cu:0.0kg</t>
         </is>
       </c>
       <c r="I7" s="51" t="n"/>
@@ -1816,7 +1666,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66.0 V ( 65.7778V )</t>
+          <t>444.0 V ( 416.875V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
@@ -1829,12 +1679,12 @@
     <row r="11">
       <c r="A11" s="81" t="inlineStr">
         <is>
-          <t>4 NOLU KADEME:</t>
+          <t>3 NOLU KADEME:</t>
         </is>
       </c>
       <c r="I11" s="81" t="inlineStr">
         <is>
-          <t>1 NOLU KADEME:</t>
+          <t>5 NOLU KADEME:</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1795,7 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1969,7 +1819,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>3.375</v>
+        <v>41.758424</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -2004,11 +1854,7 @@
       </c>
       <c r="L18" s="25" t="n"/>
       <c r="M18" s="25" t="n"/>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>Guc Degeri : 0.0</t>
-        </is>
-      </c>
+      <c r="O18" s="2" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="82" t="inlineStr">
@@ -2022,7 +1868,7 @@
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>74 sp</t>
+          <t>145 sp</t>
         </is>
       </c>
       <c r="I19" s="82" t="inlineStr">
@@ -2067,12 +1913,12 @@
         </is>
       </c>
       <c r="B21" s="24" t="n"/>
-      <c r="C21" s="24" t="n"/>
-      <c r="D21" s="84" t="inlineStr">
+      <c r="C21" s="84" t="inlineStr">
         <is>
           <t>12.0x2.0</t>
         </is>
       </c>
+      <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
       <c r="I21" s="82" t="inlineStr">
         <is>
@@ -2091,10 +1937,10 @@
         </is>
       </c>
       <c r="B22" s="26" t="n"/>
-      <c r="C22" s="26" t="n"/>
-      <c r="D22" s="84" t="n">
-        <v>0.2187</v>
-      </c>
+      <c r="C22" s="84" t="n">
+        <v>2.7059458752</v>
+      </c>
+      <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
       <c r="I22" s="82" t="inlineStr">
         <is>
@@ -2158,7 +2004,7 @@
       <c r="E25" s="24" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>55.0 V ( 55.1111V )</t>
+          <t>233.0 V ( 218.5V )</t>
         </is>
       </c>
       <c r="I25" s="82" t="inlineStr">
@@ -2170,12 +2016,21 @@
       <c r="K25" s="24" t="n"/>
       <c r="L25" s="24" t="n"/>
       <c r="M25" s="24" t="n"/>
-      <c r="O25" s="2" t="n"/>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>555.0 V ( 520.375V )</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="81" t="inlineStr">
         <is>
-          <t>3 NOLU KADEME:</t>
+          <t>2 NOLU KADEME:</t>
+        </is>
+      </c>
+      <c r="I26" s="81" t="inlineStr">
+        <is>
+          <t>4 NOLU KADEME:</t>
         </is>
       </c>
     </row>
@@ -2190,6 +2045,16 @@
           <t>Al</t>
         </is>
       </c>
+      <c r="I27" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="J27" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="82" t="inlineStr">
@@ -2198,6 +2063,14 @@
         </is>
       </c>
       <c r="B28" s="83" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I28" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="J28" s="83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2208,12 +2081,15 @@
         </is>
       </c>
       <c r="B29" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="17" t="inlineStr">
-        <is>
-          <t>0.0 V ( 0.0V )</t>
-        </is>
+        <v>0.6361725123519332</v>
+      </c>
+      <c r="I29" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="J29" s="83" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" thickBot="1">
@@ -2223,12 +2099,15 @@
         </is>
       </c>
       <c r="B30" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
+        <v>1.017876019763093</v>
+      </c>
+      <c r="I30" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="J30" s="83" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" thickBot="1">
@@ -2238,14 +2117,16 @@
         </is>
       </c>
       <c r="B31" s="83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="82" t="inlineStr">
         <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J31" s="83" t="inlineStr"/>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="J31" s="83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="82" t="inlineStr">
@@ -2254,15 +2135,15 @@
         </is>
       </c>
       <c r="B32" s="83" t="n">
-        <v>0</v>
+        <v>32.905064</v>
       </c>
       <c r="I32" s="82" t="inlineStr">
         <is>
-          <t>Cap :</t>
+          <t>Uzunluk :</t>
         </is>
       </c>
       <c r="J32" s="83" t="n">
-        <v>0</v>
+        <v>83.66870400000001</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1">
@@ -2272,13 +2153,11 @@
           <t>-- Teller --</t>
         </is>
       </c>
-      <c r="I33" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J33" s="83" t="n">
-        <v>0</v>
+      <c r="J33" s="83" t="inlineStr"/>
+      <c r="K33" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" thickBot="1">
@@ -2287,18 +2166,23 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
+      <c r="B34" s="84" t="n">
+        <v>0.9</v>
+      </c>
       <c r="G34" s="17" t="inlineStr">
         <is>
-          <t>62 sp</t>
+          <t>76 sp</t>
         </is>
       </c>
       <c r="I34" s="82" t="inlineStr">
         <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J34" s="83" t="n">
-        <v>0</v>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="O34" s="17" t="inlineStr">
+        <is>
+          <t>181 sp</t>
+        </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" thickBot="1">
@@ -2307,13 +2191,13 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
+      <c r="B35" s="84" t="n">
+        <v>0.0565199025317491</v>
+      </c>
       <c r="I35" s="82" t="inlineStr">
         <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J35" s="83" t="n">
-        <v>0</v>
+          <t>Ytel Agr :</t>
+        </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
@@ -2324,11 +2208,13 @@
       </c>
       <c r="I36" s="82" t="inlineStr">
         <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J36" s="83" t="n">
-        <v>0</v>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+      <c r="J36" s="84" t="inlineStr">
+        <is>
+          <t>4.0x2.5</t>
+        </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
@@ -2337,16 +2223,13 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="J37" s="83" t="inlineStr"/>
-      <c r="K37" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Guc Degeri : 0.0</t>
-        </is>
+      <c r="I37" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+      <c r="J37" s="84" t="n">
+        <v>2.259055008</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
@@ -2357,12 +2240,7 @@
       </c>
       <c r="I38" s="82" t="inlineStr">
         <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="O38" s="17" t="inlineStr">
-        <is>
-          <t>0 sp</t>
+          <t>Folyo :</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2252,7 @@
       </c>
       <c r="I39" s="82" t="inlineStr">
         <is>
-          <t>Ytel Agr :</t>
+          <t>Folyo Agr :</t>
         </is>
       </c>
     </row>
@@ -2386,24 +2264,29 @@
       </c>
       <c r="G40" s="17" t="inlineStr">
         <is>
-          <t>45.0 V ( 44.4444V )</t>
+          <t>23.0 V ( 23.0V )</t>
         </is>
       </c>
       <c r="I40" s="82" t="inlineStr">
         <is>
-          <t>Kare Tel :</t>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="O40" s="17" t="inlineStr">
+        <is>
+          <t>443.0 V ( 416.875V )</t>
         </is>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="81" t="inlineStr">
         <is>
-          <t>2 NOLU KADEME:</t>
-        </is>
-      </c>
-      <c r="I41" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
+          <t>1 NOLU KADEME:</t>
+        </is>
+      </c>
+      <c r="I41" s="81" t="inlineStr">
+        <is>
+          <t>3 NOLU KADEME:</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2303,12 @@
       </c>
       <c r="I42" s="82" t="inlineStr">
         <is>
-          <t>Folyo :</t>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="J42" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
         </is>
       </c>
     </row>
@@ -2435,8 +2323,11 @@
       </c>
       <c r="I43" s="82" t="inlineStr">
         <is>
-          <t>Folyo Agr :</t>
-        </is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="J43" s="83" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="44">
@@ -2450,8 +2341,11 @@
       </c>
       <c r="I44" s="82" t="inlineStr">
         <is>
-          <t>Kapton :</t>
-        </is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="J44" s="83" t="n">
+        <v>70.23758294442773</v>
       </c>
     </row>
     <row r="45">
@@ -2463,6 +2357,14 @@
       <c r="B45" s="83" t="n">
         <v>0</v>
       </c>
+      <c r="I45" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="J45" s="83" t="n">
+        <v>112.3801327110844</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="82" t="inlineStr">
@@ -2473,6 +2375,14 @@
       <c r="B46" s="83" t="n">
         <v>0</v>
       </c>
+      <c r="I46" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="J46" s="83" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="82" t="inlineStr">
@@ -2482,6 +2392,14 @@
       </c>
       <c r="B47" s="83" t="n">
         <v>0</v>
+      </c>
+      <c r="I47" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="J47" s="83" t="n">
+        <v>218.04534</v>
       </c>
     </row>
     <row r="48">
@@ -2491,9 +2409,10 @@
           <t>-- Teller --</t>
         </is>
       </c>
-      <c r="O48" s="17" t="inlineStr">
-        <is>
-          <t>0.0 V ( 0.0V )</t>
+      <c r="J48" s="83" t="inlineStr"/>
+      <c r="K48" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
         </is>
       </c>
     </row>
@@ -2505,12 +2424,20 @@
       </c>
       <c r="G49" s="17" t="inlineStr">
         <is>
-          <t>50 sp</t>
-        </is>
-      </c>
-      <c r="I49" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
+          <t>8 sp</t>
+        </is>
+      </c>
+      <c r="I49" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="J49" s="84" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O49" s="17" t="inlineStr">
+        <is>
+          <t>145 sp</t>
         </is>
       </c>
     </row>
@@ -2522,10 +2449,12 @@
       </c>
       <c r="I50" s="82" t="inlineStr">
         <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J50" s="83" t="inlineStr"/>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+      <c r="J50" s="84" t="n">
+        <v>0.1398704055190517</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="82" t="inlineStr">
@@ -2535,11 +2464,13 @@
       </c>
       <c r="I51" s="82" t="inlineStr">
         <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J51" s="83" t="n">
-        <v>0</v>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+      <c r="J51" s="84" t="inlineStr">
+        <is>
+          <t>10.0x7.0</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2550,11 +2481,11 @@
       </c>
       <c r="I52" s="82" t="inlineStr">
         <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J52" s="83" t="n">
-        <v>0</v>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+      <c r="J52" s="84" t="n">
+        <v>41.21056926</v>
       </c>
     </row>
     <row r="53">
@@ -2565,11 +2496,8 @@
       </c>
       <c r="I53" s="82" t="inlineStr">
         <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J53" s="83" t="n">
-        <v>0</v>
+          <t>Folyo :</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2580,11 +2508,8 @@
       </c>
       <c r="I54" s="82" t="inlineStr">
         <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J54" s="83" t="n">
-        <v>0</v>
+          <t>Folyo Agr :</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2593,250 +2518,172 @@
           <t>Kapton :</t>
         </is>
       </c>
-      <c r="G55" s="17" t="inlineStr">
-        <is>
-          <t>40.0 V ( 40.0V )</t>
-        </is>
-      </c>
       <c r="I55" s="82" t="inlineStr">
         <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="O55" s="17" t="inlineStr">
+        <is>
+          <t>0.0 V ( 0.0V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="I56" s="81" t="inlineStr">
+        <is>
+          <t>2 NOLU KADEME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="I57" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="J57" s="83" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="I58" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="J58" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="I59" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="J59" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="I60" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="J60" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="I61" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="J61" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="I62" s="82" t="inlineStr">
+        <is>
           <t>Uzunluk :</t>
         </is>
       </c>
-      <c r="J55" s="83" t="n">
+      <c r="J62" s="83" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="81" t="inlineStr">
+    <row r="63">
+      <c r="J63" s="83" t="inlineStr"/>
+      <c r="K63" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="O64" s="17" t="inlineStr">
+        <is>
+          <t>0 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="I65" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="I66" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="I67" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="I68" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="I69" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="I70" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="O70" s="17" t="inlineStr">
+        <is>
+          <t>440.0 V ( 414.0V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="I71" s="81" t="inlineStr">
         <is>
           <t>1 NOLU KADEME:</t>
         </is>
-      </c>
-      <c r="J56" s="83" t="inlineStr"/>
-      <c r="K56" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Guc Degeri : 0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="B57" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="I57" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="O57" s="17" t="inlineStr">
-        <is>
-          <t>0 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="B58" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="B59" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="B60" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="B61" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="B62" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="83" t="inlineStr"/>
-      <c r="C63" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="I63" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="G64" s="17" t="inlineStr">
-        <is>
-          <t>45 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-      <c r="O67" s="17" t="inlineStr">
-        <is>
-          <t>0.0 V ( 0.0V )</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-      <c r="I68" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-      <c r="I69" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J69" s="83" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-      <c r="I70" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J70" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="I71" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J71" s="83" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="I72" s="82" t="inlineStr">
         <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J72" s="83" t="n">
-        <v>0</v>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="J72" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="I73" s="82" t="inlineStr">
         <is>
-          <t>Kat :</t>
+          <t>Cap :</t>
         </is>
       </c>
       <c r="J73" s="83" t="n">
@@ -2846,7 +2693,7 @@
     <row r="74">
       <c r="I74" s="82" t="inlineStr">
         <is>
-          <t>Uzunluk :</t>
+          <t>Kesit :</t>
         </is>
       </c>
       <c r="J74" s="83" t="n">
@@ -2854,1073 +2701,371 @@
       </c>
     </row>
     <row r="75">
-      <c r="J75" s="83" t="inlineStr"/>
-      <c r="K75" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Guc Degeri : 0.0</t>
-        </is>
+      <c r="I75" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="J75" s="83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="I76" s="82" t="inlineStr">
         <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="O76" s="17" t="inlineStr">
-        <is>
-          <t>0 sp</t>
-        </is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="J76" s="83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="I77" s="82" t="inlineStr">
         <is>
-          <t>Ytel Agr :</t>
-        </is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="J77" s="83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
-      <c r="I78" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
+      <c r="J78" s="83" t="inlineStr"/>
+      <c r="K78" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="I79" s="82" t="inlineStr">
         <is>
-          <t>Ktel Agr :</t>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="O79" s="17" t="inlineStr">
+        <is>
+          <t>144 sp</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="I80" s="82" t="inlineStr">
         <is>
-          <t>Folyo :</t>
+          <t>Ytel Agr :</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="I81" s="82" t="inlineStr">
         <is>
-          <t>Folyo Agr :</t>
+          <t>Kare Tel :</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="I82" s="82" t="inlineStr">
         <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="I83" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="I84" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="I85" s="82" t="inlineStr">
+        <is>
           <t>Kapton :</t>
         </is>
       </c>
     </row>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86">
-      <c r="O86" s="17" t="inlineStr">
-        <is>
-          <t>0.0 V ( 0.0V )</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="I87" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="I88" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J88" s="83" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="I89" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J89" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="I90" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J90" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="I91" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J91" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="I92" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J92" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="I93" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J93" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
     <row r="94">
-      <c r="J94" s="83" t="inlineStr"/>
-      <c r="K94" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Guc Degeri : 0.0</t>
-        </is>
-      </c>
+      <c r="B94" s="34" t="inlineStr">
+        <is>
+          <t>IZOLASYON DEGERLERI</t>
+        </is>
+      </c>
+      <c r="C94" s="35" t="n"/>
+      <c r="D94" s="35" t="n"/>
+      <c r="E94" s="35" t="n"/>
+      <c r="F94" s="35" t="n"/>
+      <c r="G94" s="15" t="n"/>
     </row>
     <row r="95">
-      <c r="I95" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="O95" s="17" t="inlineStr">
-        <is>
-          <t>0 sp</t>
+      <c r="B95" s="85" t="inlineStr">
+        <is>
+          <t>Primer Kademe</t>
+        </is>
+      </c>
+      <c r="C95" s="46" t="n"/>
+      <c r="D95" s="46" t="n"/>
+      <c r="E95" s="48" t="n"/>
+      <c r="F95" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G95" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ekran </t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="I96" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
+      <c r="B96" s="86" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C96" s="46" t="n"/>
+      <c r="D96" s="46" t="n"/>
+      <c r="E96" s="87" t="n"/>
+      <c r="F96" s="18" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G96" s="19" t="inlineStr">
+        <is>
+          <t>Yok</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="I97" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
+      <c r="B97" s="85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VA Kademe </t>
+        </is>
+      </c>
+      <c r="C97" s="46" t="n"/>
+      <c r="D97" s="46" t="n"/>
+      <c r="E97" s="48" t="n"/>
+      <c r="F97" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G97" s="8" t="inlineStr">
+        <is>
+          <t>Ekstra</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="I98" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
+      <c r="B98" s="86" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C98" s="46" t="n"/>
+      <c r="D98" s="46" t="n"/>
+      <c r="E98" s="87" t="n"/>
+      <c r="F98" s="18" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G98" s="19" t="inlineStr">
+        <is>
+          <t>Yok</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="I99" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
+      <c r="B99" s="85" t="inlineStr">
+        <is>
+          <t>Primer-Sekonder</t>
+        </is>
+      </c>
+      <c r="C99" s="46" t="n"/>
+      <c r="D99" s="46" t="n"/>
+      <c r="E99" s="48" t="n"/>
+      <c r="F99" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G99" s="8" t="n"/>
     </row>
     <row r="100">
-      <c r="I100" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
+      <c r="B100" s="86" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C100" s="46" t="n"/>
+      <c r="D100" s="46" t="n"/>
+      <c r="E100" s="87" t="n"/>
+      <c r="F100" s="20" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G100" s="16" t="n"/>
     </row>
     <row r="101">
-      <c r="I101" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-    </row>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
+      <c r="B101" s="34" t="inlineStr">
+        <is>
+          <t>NÜVE ÖLÇÜLERİ (mm)</t>
+        </is>
+      </c>
+      <c r="C101" s="35" t="n"/>
+      <c r="D101" s="35" t="n"/>
+      <c r="E101" s="35" t="n"/>
+      <c r="F101" s="35" t="n"/>
+      <c r="G101" s="35" t="n"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C102" s="7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D102" s="7" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E102" s="7" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F102" s="7" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G102" s="8" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="28" t="inlineStr">
+        <is>
+          <t>300.0 mm</t>
+        </is>
+      </c>
+      <c r="C103" s="29" t="inlineStr">
+        <is>
+          <t>166.0 mm</t>
+        </is>
+      </c>
+      <c r="D103" s="29" t="inlineStr">
+        <is>
+          <t>268.0 mm</t>
+        </is>
+      </c>
+      <c r="E103" s="29" t="inlineStr"/>
+      <c r="F103" s="29" t="inlineStr"/>
+      <c r="G103" s="30" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="34" t="inlineStr">
+        <is>
+          <t>TRAFO ÖLÇÜLERİ (mm)</t>
+        </is>
+      </c>
+      <c r="C104" s="35" t="n"/>
+      <c r="D104" s="35" t="n"/>
+      <c r="E104" s="35" t="n"/>
+      <c r="F104" s="35" t="n"/>
+      <c r="G104" s="35" t="n"/>
+    </row>
     <row r="105">
-      <c r="O105" s="17" t="inlineStr">
-        <is>
-          <t>0.0 V ( 0.0V )</t>
+      <c r="B105" s="7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C105" s="7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D105" s="7" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E105" s="7" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F105" s="7" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G105" s="8" t="inlineStr">
+        <is>
+          <t>f</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="I106" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="I107" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J107" s="83" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="I108" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J108" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="I109" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J109" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="I110" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J110" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="I111" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J111" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="I112" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J112" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="J113" s="83" t="inlineStr"/>
-      <c r="K113" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>Guc Degeri : 0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="I114" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="O114" s="17" t="inlineStr">
-        <is>
-          <t>0 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="I115" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="I116" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="I117" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="I118" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="I119" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="I120" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-    </row>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124">
-      <c r="O124" s="17" t="inlineStr">
-        <is>
-          <t>0.0 V ( 0.0V )</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="I125" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="I126" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J126" s="83" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="I127" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J127" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="I128" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J128" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="I129" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J129" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="I130" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J130" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="I131" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J131" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="J132" s="83" t="inlineStr"/>
-      <c r="K132" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>Guc Degeri : 0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="I133" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="O133" s="17" t="inlineStr">
-        <is>
-          <t>0 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="I134" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="I135" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="I136" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="I137" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="I138" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="I139" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-    </row>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143">
-      <c r="O143" s="17" t="inlineStr">
-        <is>
-          <t>0.0 V ( 0.0V )</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="I144" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="I145" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J145" s="83" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="I146" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J146" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="I147" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J147" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="I148" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J148" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="I149" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J149" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="I150" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J150" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="J151" s="83" t="inlineStr"/>
-      <c r="K151" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>Guc Degeri : 0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="I152" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="O152" s="17" t="inlineStr">
-        <is>
-          <t>0 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="I153" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="I154" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="I155" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="I156" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="I157" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="I158" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-    </row>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162">
-      <c r="O162" s="17" t="inlineStr">
-        <is>
-          <t>123.0 V ( 122.6667V )</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="I163" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="I164" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J164" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="I165" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J165" s="83" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="I166" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J166" s="83" t="n">
-        <v>10.75210085691107</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="I167" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J167" s="83" t="n">
-        <v>17.20336137105771</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="I168" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J168" s="83" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="I169" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J169" s="83" t="n">
-        <v>58.733856</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="J170" s="83" t="inlineStr"/>
-      <c r="K170" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>Guc Degeri : 230.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="I171" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="J171" s="84" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O171" s="17" t="inlineStr">
-        <is>
-          <t>138 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="I172" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-      <c r="J172" s="84" t="n">
-        <v>1.705083327253687</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="I173" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="I174" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="I175" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="I176" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="I177" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-    </row>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205">
-      <c r="B205" s="34" t="inlineStr">
-        <is>
-          <t>IZOLASYON DEGERLERI</t>
-        </is>
-      </c>
-      <c r="C205" s="35" t="n"/>
-      <c r="D205" s="35" t="n"/>
-      <c r="E205" s="35" t="n"/>
-      <c r="F205" s="35" t="n"/>
-      <c r="G205" s="15" t="n"/>
-    </row>
-    <row r="206">
-      <c r="B206" s="85" t="inlineStr">
-        <is>
-          <t>Primer Kademe</t>
-        </is>
-      </c>
-      <c r="C206" s="46" t="n"/>
-      <c r="D206" s="46" t="n"/>
-      <c r="E206" s="48" t="n"/>
-      <c r="F206" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G206" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekran </t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="B207" s="86" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C207" s="46" t="n"/>
-      <c r="D207" s="46" t="n"/>
-      <c r="E207" s="87" t="n"/>
-      <c r="F207" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G207" s="19" t="inlineStr">
-        <is>
-          <t>Ø : 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="B208" s="85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VA Kademe </t>
-        </is>
-      </c>
-      <c r="C208" s="46" t="n"/>
-      <c r="D208" s="46" t="n"/>
-      <c r="E208" s="48" t="n"/>
-      <c r="F208" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G208" s="8" t="inlineStr">
-        <is>
-          <t>Ekstra</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="B209" s="86" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C209" s="46" t="n"/>
-      <c r="D209" s="46" t="n"/>
-      <c r="E209" s="87" t="n"/>
-      <c r="F209" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G209" s="19" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="B210" s="85" t="inlineStr">
-        <is>
-          <t>Primer-Sekonder</t>
-        </is>
-      </c>
-      <c r="C210" s="46" t="n"/>
-      <c r="D210" s="46" t="n"/>
-      <c r="E210" s="48" t="n"/>
-      <c r="F210" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G210" s="8" t="n"/>
-    </row>
-    <row r="211">
-      <c r="B211" s="86" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="C211" s="46" t="n"/>
-      <c r="D211" s="46" t="n"/>
-      <c r="E211" s="87" t="n"/>
-      <c r="F211" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G211" s="16" t="n"/>
-    </row>
-    <row r="212">
-      <c r="B212" s="34" t="inlineStr">
-        <is>
-          <t>NÜVE ÖLÇÜLERİ (mm)</t>
-        </is>
-      </c>
-      <c r="C212" s="35" t="n"/>
-      <c r="D212" s="35" t="n"/>
-      <c r="E212" s="35" t="n"/>
-      <c r="F212" s="35" t="n"/>
-      <c r="G212" s="35" t="n"/>
-    </row>
-    <row r="213">
-      <c r="B213" s="7" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C213" s="7" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="D213" s="7" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="E213" s="7" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="F213" s="7" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="G213" s="8" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="B214" s="28" t="inlineStr">
-        <is>
-          <t>150.0 mm</t>
-        </is>
-      </c>
-      <c r="C214" s="29" t="inlineStr">
-        <is>
-          <t>103.0 mm</t>
-        </is>
-      </c>
-      <c r="D214" s="29" t="inlineStr">
-        <is>
-          <t>170.0 mm</t>
-        </is>
-      </c>
-      <c r="E214" s="29" t="inlineStr"/>
-      <c r="F214" s="29" t="inlineStr"/>
-      <c r="G214" s="30" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="B215" s="34" t="inlineStr">
-        <is>
-          <t>TRAFO ÖLÇÜLERİ (mm)</t>
-        </is>
-      </c>
-      <c r="C215" s="35" t="n"/>
-      <c r="D215" s="35" t="n"/>
-      <c r="E215" s="35" t="n"/>
-      <c r="F215" s="35" t="n"/>
-      <c r="G215" s="35" t="n"/>
-    </row>
-    <row r="216">
-      <c r="B216" s="7" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C216" s="7" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="D216" s="7" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="E216" s="7" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="F216" s="7" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="G216" s="8" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="B217" s="28" t="inlineStr">
-        <is>
-          <t>150.0 mm</t>
-        </is>
-      </c>
-      <c r="C217" s="29" t="inlineStr">
-        <is>
-          <t>120.0 mm</t>
-        </is>
-      </c>
-      <c r="D217" s="29" t="inlineStr">
-        <is>
-          <t>125.0 mm</t>
-        </is>
-      </c>
-      <c r="E217" s="29" t="inlineStr">
-        <is>
-          <t>115.0 mm</t>
-        </is>
-      </c>
-      <c r="F217" s="29" t="inlineStr">
-        <is>
-          <t>99.0 mm</t>
-        </is>
-      </c>
-      <c r="G217" s="30" t="inlineStr">
+      <c r="B106" s="28" t="inlineStr">
+        <is>
+          <t>300.0 mm</t>
+        </is>
+      </c>
+      <c r="C106" s="29" t="inlineStr">
+        <is>
+          <t>220.0 mm</t>
+        </is>
+      </c>
+      <c r="D106" s="29" t="inlineStr">
+        <is>
+          <t>250.0 mm</t>
+        </is>
+      </c>
+      <c r="E106" s="29" t="inlineStr">
+        <is>
+          <t>240.0 mm</t>
+        </is>
+      </c>
+      <c r="F106" s="29" t="inlineStr">
+        <is>
+          <t>174.0 mm</t>
+        </is>
+      </c>
+      <c r="G106" s="30" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="38">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -3945,25 +3090,20 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B206:E206"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="I163:M163"/>
-    <mergeCell ref="I144:M144"/>
-    <mergeCell ref="I125:M125"/>
-    <mergeCell ref="I106:M106"/>
-    <mergeCell ref="I87:M87"/>
-    <mergeCell ref="I68:M68"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
     <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="I71:M71"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
@@ -4030,12 +3170,12 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010013X70ALEBT</t>
+          <t>H010010X90AET</t>
         </is>
       </c>
       <c r="C3" s="42" t="n"/>
       <c r="D3" s="42" t="n">
-        <v>1.705083327253687</v>
+        <v>0.0565199025317491</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -4046,12 +3186,12 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>12X2YSAPFI</t>
+          <t>H010010X55AET</t>
         </is>
       </c>
       <c r="C4" s="42" t="n"/>
       <c r="D4" s="42" t="n">
-        <v>0.2187</v>
+        <v>0.1398704055190517</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
@@ -4060,9 +3200,15 @@
       <c r="A5" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="n"/>
+      <c r="B5" s="42" t="inlineStr">
+        <is>
+          <t>H0101210X7KPAL</t>
+        </is>
+      </c>
       <c r="C5" s="42" t="n"/>
-      <c r="D5" s="42" t="n"/>
+      <c r="D5" s="42" t="n">
+        <v>41.21056926</v>
+      </c>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
     </row>
@@ -4070,9 +3216,15 @@
       <c r="A6" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="n"/>
+      <c r="B6" s="42" t="inlineStr">
+        <is>
+          <t>12X2YSAPFI</t>
+        </is>
+      </c>
       <c r="C6" s="42" t="n"/>
-      <c r="D6" s="42" t="n"/>
+      <c r="D6" s="42" t="n">
+        <v>2.7059458752</v>
+      </c>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>
@@ -4080,9 +3232,15 @@
       <c r="A7" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="n"/>
+      <c r="B7" s="42" t="inlineStr">
+        <is>
+          <t>H0103004X2,5PFI</t>
+        </is>
+      </c>
       <c r="C7" s="42" t="n"/>
-      <c r="D7" s="42" t="n"/>
+      <c r="D7" s="42" t="n">
+        <v>2.259055008</v>
+      </c>
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
     </row>

--- a/media/reports/izolasyon_mono.xlsx
+++ b/media/reports/izolasyon_mono.xlsx
@@ -849,12 +849,12 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>7</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="323850" cy="2952750"/>
+    <ext cx="1019175" cy="1162050"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -876,7 +876,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -901,7 +901,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -926,7 +926,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>55</row>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -951,7 +951,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>70</row>
+      <row>55</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -974,9 +974,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>13</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>70</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -1001,7 +1001,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -1026,7 +1026,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -1049,6 +1049,31 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="323850" cy="2952750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
       <col>1</col>
       <colOff>0</colOff>
       <row>107</row>
@@ -1057,11 +1082,11 @@
     <ext cx="4286250" cy="3705225"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1419,7 +1444,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44248.7603093614</v>
+        <v>44309.83513729321</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1466,7 +1491,7 @@
       </c>
       <c r="H3" s="73" t="inlineStr">
         <is>
-          <t>2.762 kg</t>
+          <t>2.465 kg</t>
         </is>
       </c>
       <c r="I3" s="51" t="n"/>
@@ -1478,7 +1503,7 @@
       <c r="K3" s="54" t="n"/>
       <c r="L3" s="75" t="inlineStr">
         <is>
-          <t>100.0 x 120.0 x 72.0</t>
+          <t>100.0 x 120.0 x 136.0</t>
         </is>
       </c>
       <c r="M3" s="53" t="n"/>
@@ -1507,7 +1532,7 @@
       </c>
       <c r="H4" s="73" t="inlineStr">
         <is>
-          <t>43.609 kg</t>
+          <t>27.523 kg</t>
         </is>
       </c>
       <c r="I4" s="51" t="n"/>
@@ -1624,7 +1649,7 @@
       </c>
       <c r="H7" s="73" t="inlineStr">
         <is>
-          <t>Al:46.372 //  Cu:0.0kg</t>
+          <t>Al:29.987 //  Cu:0.0kg</t>
         </is>
       </c>
       <c r="I7" s="51" t="n"/>
@@ -1795,7 +1820,7 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1819,7 +1844,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>41.758424</v>
+        <v>37.163444</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1938,7 +1963,7 @@
       </c>
       <c r="B22" s="26" t="n"/>
       <c r="C22" s="84" t="n">
-        <v>2.7059458752</v>
+        <v>2.4081911712</v>
       </c>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
@@ -2018,7 +2043,7 @@
       <c r="M25" s="24" t="n"/>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>555.0 V ( 520.375V )</t>
+          <t>444.0 V ( 416.875V )</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2150,7 @@
         </is>
       </c>
       <c r="J31" s="83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -2143,7 +2168,7 @@
         </is>
       </c>
       <c r="J32" s="83" t="n">
-        <v>83.66870400000001</v>
+        <v>195.309845</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1">
@@ -2181,7 +2206,7 @@
       </c>
       <c r="O34" s="17" t="inlineStr">
         <is>
-          <t>181 sp</t>
+          <t>145 sp</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2254,7 @@
         </is>
       </c>
       <c r="J37" s="84" t="n">
-        <v>2.259055008</v>
+        <v>5.273365815000001</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
@@ -2274,7 +2299,7 @@
       </c>
       <c r="O40" s="17" t="inlineStr">
         <is>
-          <t>443.0 V ( 416.875V )</t>
+          <t>0.0 V ( 0.0V )</t>
         </is>
       </c>
     </row>
@@ -2306,11 +2331,7 @@
           <t>Tel :</t>
         </is>
       </c>
-      <c r="J42" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
+      <c r="J42" s="83" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="82" t="inlineStr">
@@ -2327,7 +2348,7 @@
         </is>
       </c>
       <c r="J43" s="83" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2345,7 +2366,7 @@
         </is>
       </c>
       <c r="J44" s="83" t="n">
-        <v>70.23758294442773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2363,7 +2384,7 @@
         </is>
       </c>
       <c r="J45" s="83" t="n">
-        <v>112.3801327110844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2381,7 +2402,7 @@
         </is>
       </c>
       <c r="J46" s="83" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2399,7 +2420,7 @@
         </is>
       </c>
       <c r="J47" s="83" t="n">
-        <v>218.04534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2432,12 +2453,9 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="J49" s="84" t="n">
-        <v>0.55</v>
-      </c>
       <c r="O49" s="17" t="inlineStr">
         <is>
-          <t>145 sp</t>
+          <t>0 sp</t>
         </is>
       </c>
     </row>
@@ -2452,9 +2470,6 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="J50" s="84" t="n">
-        <v>0.1398704055190517</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="82" t="inlineStr">
@@ -2467,11 +2482,6 @@
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="J51" s="84" t="inlineStr">
-        <is>
-          <t>10.0x7.0</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="82" t="inlineStr">
@@ -2484,9 +2494,6 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="J52" s="84" t="n">
-        <v>41.21056926</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="82" t="inlineStr">
@@ -2525,7 +2532,7 @@
       </c>
       <c r="O55" s="17" t="inlineStr">
         <is>
-          <t>0.0 V ( 0.0V )</t>
+          <t>444.0 V ( 416.875V )</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2549,11 @@
           <t>Tel :</t>
         </is>
       </c>
-      <c r="J57" s="83" t="inlineStr"/>
+      <c r="J57" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="I58" s="82" t="inlineStr">
@@ -2551,7 +2562,7 @@
         </is>
       </c>
       <c r="J58" s="83" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="59">
@@ -2561,7 +2572,7 @@
         </is>
       </c>
       <c r="J59" s="83" t="n">
-        <v>0</v>
+        <v>85.15904312808799</v>
       </c>
     </row>
     <row r="60">
@@ -2571,7 +2582,7 @@
         </is>
       </c>
       <c r="J60" s="83" t="n">
-        <v>0</v>
+        <v>136.2544690049408</v>
       </c>
     </row>
     <row r="61">
@@ -2591,7 +2602,7 @@
         </is>
       </c>
       <c r="J62" s="83" t="n">
-        <v>0</v>
+        <v>1.290275</v>
       </c>
     </row>
     <row r="63">
@@ -2608,9 +2619,12 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
+      <c r="J64" s="84" t="n">
+        <v>0.45</v>
+      </c>
       <c r="O64" s="17" t="inlineStr">
         <is>
-          <t>0 sp</t>
+          <t>145 sp</t>
         </is>
       </c>
     </row>
@@ -2620,6 +2634,9 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
+      <c r="J65" s="84" t="n">
+        <v>0.0005540653046530511</v>
+      </c>
     </row>
     <row r="66">
       <c r="I66" s="82" t="inlineStr">
@@ -2627,6 +2644,11 @@
           <t>Kare Tel :</t>
         </is>
       </c>
+      <c r="J66" s="84" t="inlineStr">
+        <is>
+          <t>10.0x8.5</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="I67" s="82" t="inlineStr">
@@ -2634,6 +2656,9 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
+      <c r="J67" s="84" t="n">
+        <v>0.2961181125</v>
+      </c>
     </row>
     <row r="68">
       <c r="I68" s="82" t="inlineStr">
@@ -2687,7 +2712,7 @@
         </is>
       </c>
       <c r="J73" s="83" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="74">
@@ -2697,7 +2722,7 @@
         </is>
       </c>
       <c r="J74" s="83" t="n">
-        <v>0</v>
+        <v>60.12566370614359</v>
       </c>
     </row>
     <row r="75">
@@ -2707,7 +2732,7 @@
         </is>
       </c>
       <c r="J75" s="83" t="n">
-        <v>0</v>
+        <v>96.20106192982975</v>
       </c>
     </row>
     <row r="76">
@@ -2717,7 +2742,7 @@
         </is>
       </c>
       <c r="J76" s="83" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -2727,7 +2752,7 @@
         </is>
       </c>
       <c r="J77" s="83" t="n">
-        <v>0</v>
+        <v>135.226272</v>
       </c>
     </row>
     <row r="78">
@@ -2744,6 +2769,9 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
+      <c r="J79" s="84" t="n">
+        <v>0.4</v>
+      </c>
       <c r="O79" s="17" t="inlineStr">
         <is>
           <t>144 sp</t>
@@ -2756,6 +2784,9 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
+      <c r="J80" s="84" t="n">
+        <v>0.04588119317025381</v>
+      </c>
     </row>
     <row r="81">
       <c r="I81" s="82" t="inlineStr">
@@ -2763,12 +2794,20 @@
           <t>Kare Tel :</t>
         </is>
       </c>
+      <c r="J81" s="84" t="inlineStr">
+        <is>
+          <t>12.0x5.0</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="I82" s="82" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
+      </c>
+      <c r="J82" s="84" t="n">
+        <v>21.906656064</v>
       </c>
     </row>
     <row r="83">
@@ -2848,7 +2887,7 @@
       </c>
       <c r="G96" s="19" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>Ø : 0.19</t>
         </is>
       </c>
     </row>
@@ -3170,12 +3209,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010010X90AET</t>
-        </is>
-      </c>
-      <c r="C3" s="42" t="n"/>
+          <t>H010010X40AET</t>
+        </is>
+      </c>
+      <c r="C3" s="42" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
       <c r="D3" s="42" t="n">
-        <v>0.0565199025317491</v>
+        <v>0.04588119317025381</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -3186,12 +3229,16 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H010010X55AET</t>
-        </is>
-      </c>
-      <c r="C4" s="42" t="n"/>
+          <t>H0103012X050PF</t>
+        </is>
+      </c>
+      <c r="C4" s="42" t="inlineStr">
+        <is>
+          <t>12.0x5.0</t>
+        </is>
+      </c>
       <c r="D4" s="42" t="n">
-        <v>0.1398704055190517</v>
+        <v>21.906656064</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
@@ -3202,12 +3249,16 @@
       </c>
       <c r="B5" s="42" t="inlineStr">
         <is>
-          <t>H0101210X7KPAL</t>
-        </is>
-      </c>
-      <c r="C5" s="42" t="n"/>
+          <t>H010010X90AET</t>
+        </is>
+      </c>
+      <c r="C5" s="42" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
       <c r="D5" s="42" t="n">
-        <v>41.21056926</v>
+        <v>0.0565199025317491</v>
       </c>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
@@ -3218,12 +3269,16 @@
       </c>
       <c r="B6" s="42" t="inlineStr">
         <is>
-          <t>12X2YSAPFI</t>
-        </is>
-      </c>
-      <c r="C6" s="42" t="n"/>
+          <t>H010010X45AET</t>
+        </is>
+      </c>
+      <c r="C6" s="42" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
       <c r="D6" s="42" t="n">
-        <v>2.7059458752</v>
+        <v>0.0005540653046530511</v>
       </c>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
@@ -3234,12 +3289,16 @@
       </c>
       <c r="B7" s="42" t="inlineStr">
         <is>
-          <t>H0103004X2,5PFI</t>
-        </is>
-      </c>
-      <c r="C7" s="42" t="n"/>
+          <t>H010310X85PFI</t>
+        </is>
+      </c>
+      <c r="C7" s="42" t="inlineStr">
+        <is>
+          <t>10.0x8.5</t>
+        </is>
+      </c>
       <c r="D7" s="42" t="n">
-        <v>2.259055008</v>
+        <v>0.2961181125</v>
       </c>
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
@@ -3248,9 +3307,19 @@
       <c r="A8" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="42" t="n"/>
-      <c r="C8" s="42" t="n"/>
-      <c r="D8" s="42" t="n"/>
+      <c r="B8" s="42" t="inlineStr">
+        <is>
+          <t>12X2YSAPFI</t>
+        </is>
+      </c>
+      <c r="C8" s="42" t="inlineStr">
+        <is>
+          <t>12.0x2.0</t>
+        </is>
+      </c>
+      <c r="D8" s="42" t="n">
+        <v>2.4081911712</v>
+      </c>
       <c r="E8" s="42" t="n"/>
       <c r="F8" s="42" t="n"/>
     </row>
@@ -3258,9 +3327,19 @@
       <c r="A9" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="42" t="n"/>
-      <c r="C9" s="42" t="n"/>
-      <c r="D9" s="42" t="n"/>
+      <c r="B9" s="42" t="inlineStr">
+        <is>
+          <t>H0103004X2,5PFI</t>
+        </is>
+      </c>
+      <c r="C9" s="42" t="inlineStr">
+        <is>
+          <t>4.0x2.5</t>
+        </is>
+      </c>
+      <c r="D9" s="42" t="n">
+        <v>5.273365815000001</v>
+      </c>
       <c r="E9" s="42" t="n"/>
       <c r="F9" s="42" t="n"/>
     </row>

--- a/media/reports/izolasyon_mono.xlsx
+++ b/media/reports/izolasyon_mono.xlsx
@@ -100,11 +100,11 @@
       <sz val="12"/>
     </font>
     <font>
+      <sz val="9"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="8">
@@ -751,13 +751,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -899,9 +899,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>5</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -924,12 +924,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>1</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>47</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="323850" cy="2952750"/>
+    <ext cx="4286250" cy="3705225"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -937,156 +937,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>55</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="323850" cy="2952750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>70</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="323850" cy="2952750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>10</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="323850" cy="2952750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>25</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="323850" cy="2952750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>40</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="323850" cy="2952750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>107</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="4286250" cy="3705225"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1392,7 +1242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
@@ -1444,7 +1294,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44309.83513729321</v>
+        <v>44309.8552194185</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1491,7 +1341,7 @@
       </c>
       <c r="H3" s="73" t="inlineStr">
         <is>
-          <t>2.465 kg</t>
+          <t>0.216 kg</t>
         </is>
       </c>
       <c r="I3" s="51" t="n"/>
@@ -1503,7 +1353,7 @@
       <c r="K3" s="54" t="n"/>
       <c r="L3" s="75" t="inlineStr">
         <is>
-          <t>100.0 x 120.0 x 136.0</t>
+          <t>85.0 x 120.0 x 117.0</t>
         </is>
       </c>
       <c r="M3" s="53" t="n"/>
@@ -1532,7 +1382,7 @@
       </c>
       <c r="H4" s="73" t="inlineStr">
         <is>
-          <t>27.523 kg</t>
+          <t>37.439 kg</t>
         </is>
       </c>
       <c r="I4" s="51" t="n"/>
@@ -1544,7 +1394,7 @@
       <c r="K4" s="77" t="n"/>
       <c r="L4" s="78" t="inlineStr">
         <is>
-          <t>300.0 x 220.0 x 250.0</t>
+          <t>255.0 x 205.0 x 213.0</t>
         </is>
       </c>
       <c r="O4" s="77" t="n"/>
@@ -1583,7 +1433,7 @@
       <c r="K5" s="77" t="n"/>
       <c r="L5" s="78" t="inlineStr">
         <is>
-          <t>TRV4B / 25.0 / 18.0 - 120 Kose</t>
+          <t>AVK2.5 / 0.0 / 45.0 - 171 Kose</t>
         </is>
       </c>
       <c r="O5" s="77" t="n"/>
@@ -1622,7 +1472,7 @@
       <c r="K6" s="77" t="n"/>
       <c r="L6" s="78" t="inlineStr">
         <is>
-          <t>55.246 kg</t>
+          <t>38.419 kg</t>
         </is>
       </c>
       <c r="O6" s="77" t="n"/>
@@ -1649,7 +1499,7 @@
       </c>
       <c r="H7" s="73" t="inlineStr">
         <is>
-          <t>Al:29.987 //  Cu:0.0kg</t>
+          <t>Al:37.656 //  Cu:0.0kg</t>
         </is>
       </c>
       <c r="I7" s="51" t="n"/>
@@ -1691,25 +1541,25 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>444.0 V ( 416.875V )</t>
+          <t>333.0 V ( 333.0V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0.0 V ( 0.0V )</t>
+          <t>443.0 V ( 442.2656V )</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="81" t="inlineStr">
         <is>
-          <t>3 NOLU KADEME:</t>
+          <t>1 NOLU KADEME:</t>
         </is>
       </c>
       <c r="I11" s="81" t="inlineStr">
         <is>
-          <t>5 NOLU KADEME:</t>
+          <t>1 NOLU KADEME:</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1582,11 @@
           <t>Tel :</t>
         </is>
       </c>
-      <c r="J12" s="22" t="inlineStr"/>
+      <c r="J12" s="22" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="22" t="n"/>
       <c r="M12" s="22" t="n"/>
@@ -1744,7 +1598,7 @@
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
@@ -1768,7 +1622,7 @@
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>24</v>
+        <v>1.352848336452105</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1780,7 +1634,7 @@
         </is>
       </c>
       <c r="J14" s="21" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K14" s="21" t="n"/>
       <c r="L14" s="21" t="n"/>
@@ -1794,7 +1648,7 @@
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>38.40000000000001</v>
+        <v>2.164557338323367</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1806,7 +1660,7 @@
         </is>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="K15" s="21" t="n"/>
       <c r="L15" s="21" t="n"/>
@@ -1820,7 +1674,7 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1831,7 +1685,7 @@
         </is>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K16" s="21" t="n"/>
       <c r="L16" s="21" t="n"/>
@@ -1844,7 +1698,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>37.163444</v>
+        <v>59.171504</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1855,7 +1709,7 @@
         </is>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0</v>
+        <v>173.33064</v>
       </c>
       <c r="K17" s="21" t="n"/>
       <c r="L17" s="21" t="n"/>
@@ -1887,13 +1741,17 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B19" s="24" t="n"/>
-      <c r="C19" s="24" t="n"/>
+      <c r="B19" s="84" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C19" s="84" t="n">
+        <v>1</v>
+      </c>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>145 sp</t>
+          <t>128 sp</t>
         </is>
       </c>
       <c r="I19" s="82" t="inlineStr">
@@ -1907,7 +1765,7 @@
       <c r="M19" s="24" t="n"/>
       <c r="O19" s="17" t="inlineStr">
         <is>
-          <t>0 sp</t>
+          <t>170 sp</t>
         </is>
       </c>
     </row>
@@ -1917,8 +1775,12 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B20" s="26" t="n"/>
-      <c r="C20" s="26" t="n"/>
+      <c r="B20" s="84" t="n">
+        <v>0.09065757649870158</v>
+      </c>
+      <c r="C20" s="84" t="n">
+        <v>0.1254776145310749</v>
+      </c>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
       <c r="I20" s="82" t="inlineStr">
@@ -1938,11 +1800,7 @@
         </is>
       </c>
       <c r="B21" s="24" t="n"/>
-      <c r="C21" s="84" t="inlineStr">
-        <is>
-          <t>12.0x2.0</t>
-        </is>
-      </c>
+      <c r="C21" s="24" t="n"/>
       <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
       <c r="I21" s="82" t="inlineStr">
@@ -1950,7 +1808,11 @@
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="J21" s="24" t="n"/>
+      <c r="J21" s="84" t="inlineStr">
+        <is>
+          <t>10.0x8.0</t>
+        </is>
+      </c>
       <c r="K21" s="24" t="n"/>
       <c r="L21" s="24" t="n"/>
       <c r="M21" s="24" t="n"/>
@@ -1962,9 +1824,7 @@
         </is>
       </c>
       <c r="B22" s="26" t="n"/>
-      <c r="C22" s="84" t="n">
-        <v>2.4081911712</v>
-      </c>
+      <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
       <c r="I22" s="82" t="inlineStr">
@@ -1972,7 +1832,9 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="J22" s="26" t="n"/>
+      <c r="J22" s="84" t="n">
+        <v>37.43941823999999</v>
+      </c>
       <c r="K22" s="26" t="n"/>
       <c r="L22" s="26" t="n"/>
       <c r="M22" s="26" t="n"/>
@@ -2027,11 +1889,7 @@
       <c r="C25" s="24" t="n"/>
       <c r="D25" s="24" t="n"/>
       <c r="E25" s="24" t="n"/>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>233.0 V ( 218.5V )</t>
-        </is>
-      </c>
+      <c r="G25" s="2" t="n"/>
       <c r="I25" s="82" t="inlineStr">
         <is>
           <t>Kapton :</t>
@@ -2041,1070 +1899,270 @@
       <c r="K25" s="24" t="n"/>
       <c r="L25" s="24" t="n"/>
       <c r="M25" s="24" t="n"/>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>444.0 V ( 416.875V )</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="81" t="inlineStr">
-        <is>
-          <t>2 NOLU KADEME:</t>
-        </is>
-      </c>
-      <c r="I26" s="81" t="inlineStr">
-        <is>
-          <t>4 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="B27" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="I27" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J27" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="B28" s="83" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I28" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J28" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="B29" s="83" t="n">
-        <v>0.6361725123519332</v>
-      </c>
-      <c r="I29" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J29" s="83" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="B30" s="83" t="n">
-        <v>1.017876019763093</v>
-      </c>
-      <c r="I30" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J30" s="83" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="B31" s="83" t="n">
+      <c r="O25" s="2" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1"/>
+    <row r="27" ht="15" customHeight="1"/>
+    <row r="28" ht="15" customHeight="1"/>
+    <row r="29" ht="15" customHeight="1" thickBot="1"/>
+    <row r="30" ht="15" customHeight="1" thickBot="1"/>
+    <row r="31" ht="15" customHeight="1" thickBot="1"/>
+    <row r="32" ht="15" customHeight="1" thickBot="1"/>
+    <row r="33" ht="15" customHeight="1" thickBot="1"/>
+    <row r="34" ht="15" customHeight="1" thickBot="1">
+      <c r="B34" s="34" t="inlineStr">
+        <is>
+          <t>IZOLASYON DEGERLERI</t>
+        </is>
+      </c>
+      <c r="C34" s="35" t="n"/>
+      <c r="D34" s="35" t="n"/>
+      <c r="E34" s="35" t="n"/>
+      <c r="F34" s="35" t="n"/>
+      <c r="G34" s="15" t="n"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" thickBot="1">
+      <c r="B35" s="85" t="inlineStr">
+        <is>
+          <t>Primer Kademe</t>
+        </is>
+      </c>
+      <c r="C35" s="46" t="n"/>
+      <c r="D35" s="46" t="n"/>
+      <c r="E35" s="48" t="n"/>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ekran </t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" thickBot="1">
+      <c r="B36" s="86" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C36" s="46" t="n"/>
+      <c r="D36" s="46" t="n"/>
+      <c r="E36" s="87" t="n"/>
+      <c r="F36" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J31" s="83" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="B32" s="83" t="n">
-        <v>32.905064</v>
-      </c>
-      <c r="I32" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J32" s="83" t="n">
-        <v>195.309845</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" thickBot="1">
-      <c r="B33" s="83" t="inlineStr"/>
-      <c r="C33" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="J33" s="83" t="inlineStr"/>
-      <c r="K33" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="B34" s="84" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G34" s="17" t="inlineStr">
-        <is>
-          <t>76 sp</t>
-        </is>
-      </c>
-      <c r="I34" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="O34" s="17" t="inlineStr">
-        <is>
-          <t>145 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-      <c r="B35" s="84" t="n">
-        <v>0.0565199025317491</v>
-      </c>
-      <c r="I35" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-      <c r="I36" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-      <c r="J36" s="84" t="inlineStr">
-        <is>
-          <t>4.0x2.5</t>
+      <c r="G36" s="19" t="inlineStr">
+        <is>
+          <t>Ø : 0.19</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-      <c r="I37" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-      <c r="J37" s="84" t="n">
-        <v>5.273365815000001</v>
+      <c r="B37" s="85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VA Kademe </t>
+        </is>
+      </c>
+      <c r="C37" s="46" t="n"/>
+      <c r="D37" s="46" t="n"/>
+      <c r="E37" s="48" t="n"/>
+      <c r="F37" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>Ekstra</t>
+        </is>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-      <c r="I38" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
+      <c r="B38" s="86" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C38" s="46" t="n"/>
+      <c r="D38" s="46" t="n"/>
+      <c r="E38" s="87" t="n"/>
+      <c r="F38" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="19" t="inlineStr">
+        <is>
+          <t>Deger: 0.19</t>
         </is>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-      <c r="I39" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
+      <c r="B39" s="85" t="inlineStr">
+        <is>
+          <t>Primer-Sekonder</t>
+        </is>
+      </c>
+      <c r="C39" s="46" t="n"/>
+      <c r="D39" s="46" t="n"/>
+      <c r="E39" s="48" t="n"/>
+      <c r="F39" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="n"/>
     </row>
     <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-      <c r="G40" s="17" t="inlineStr">
-        <is>
-          <t>23.0 V ( 23.0V )</t>
-        </is>
-      </c>
-      <c r="I40" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-      <c r="O40" s="17" t="inlineStr">
-        <is>
-          <t>0.0 V ( 0.0V )</t>
-        </is>
-      </c>
+      <c r="B40" s="86" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C40" s="46" t="n"/>
+      <c r="D40" s="46" t="n"/>
+      <c r="E40" s="87" t="n"/>
+      <c r="F40" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="16" t="n"/>
     </row>
     <row r="41" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-      <c r="I41" s="81" t="inlineStr">
-        <is>
-          <t>3 NOLU KADEME:</t>
-        </is>
-      </c>
+      <c r="B41" s="34" t="inlineStr">
+        <is>
+          <t>NÜVE ÖLÇÜLERİ (mm)</t>
+        </is>
+      </c>
+      <c r="C41" s="35" t="n"/>
+      <c r="D41" s="35" t="n"/>
+      <c r="E41" s="35" t="n"/>
+      <c r="F41" s="35" t="n"/>
+      <c r="G41" s="35" t="n"/>
     </row>
     <row r="42" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="B42" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="I42" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J42" s="83" t="inlineStr"/>
+      <c r="B42" s="7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C42" s="7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D42" s="7" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G42" s="8" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="B43" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J43" s="83" t="n">
-        <v>0</v>
-      </c>
+      <c r="B43" s="28" t="inlineStr">
+        <is>
+          <t>255.0 mm</t>
+        </is>
+      </c>
+      <c r="C43" s="29" t="inlineStr">
+        <is>
+          <t>151.0 mm</t>
+        </is>
+      </c>
+      <c r="D43" s="29" t="inlineStr">
+        <is>
+          <t>258.0 mm</t>
+        </is>
+      </c>
+      <c r="E43" s="29" t="inlineStr"/>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="30" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="B44" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J44" s="83" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="34" t="inlineStr">
+        <is>
+          <t>TRAFO ÖLÇÜLERİ (mm)</t>
+        </is>
+      </c>
+      <c r="C44" s="35" t="n"/>
+      <c r="D44" s="35" t="n"/>
+      <c r="E44" s="35" t="n"/>
+      <c r="F44" s="35" t="n"/>
+      <c r="G44" s="35" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="B45" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J45" s="83" t="n">
-        <v>0</v>
+      <c r="B45" s="7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C45" s="7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D45" s="7" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F45" s="7" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="B46" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J46" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="B47" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J47" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="83" t="inlineStr"/>
-      <c r="C48" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="J48" s="83" t="inlineStr"/>
-      <c r="K48" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="G49" s="17" t="inlineStr">
-        <is>
-          <t>8 sp</t>
-        </is>
-      </c>
-      <c r="I49" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="O49" s="17" t="inlineStr">
-        <is>
-          <t>0 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-      <c r="I50" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-      <c r="I51" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-      <c r="I52" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-      <c r="I53" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-      <c r="I54" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-      <c r="I55" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-      <c r="O55" s="17" t="inlineStr">
-        <is>
-          <t>444.0 V ( 416.875V )</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="I56" s="81" t="inlineStr">
-        <is>
-          <t>2 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="I57" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J57" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="I58" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J58" s="83" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="I59" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J59" s="83" t="n">
-        <v>85.15904312808799</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="I60" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J60" s="83" t="n">
-        <v>136.2544690049408</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="I61" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J61" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="I62" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J62" s="83" t="n">
-        <v>1.290275</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="J63" s="83" t="inlineStr"/>
-      <c r="K63" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="I64" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="J64" s="84" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O64" s="17" t="inlineStr">
-        <is>
-          <t>145 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="I65" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-      <c r="J65" s="84" t="n">
-        <v>0.0005540653046530511</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="I66" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-      <c r="J66" s="84" t="inlineStr">
-        <is>
-          <t>10.0x8.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="I67" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-      <c r="J67" s="84" t="n">
-        <v>0.2961181125</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="I68" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="I69" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="I70" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-      <c r="O70" s="17" t="inlineStr">
-        <is>
-          <t>440.0 V ( 414.0V )</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="I71" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="I72" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J72" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="I73" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J73" s="83" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="I74" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J74" s="83" t="n">
-        <v>60.12566370614359</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="I75" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J75" s="83" t="n">
-        <v>96.20106192982975</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="I76" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J76" s="83" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="I77" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J77" s="83" t="n">
-        <v>135.226272</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="J78" s="83" t="inlineStr"/>
-      <c r="K78" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="I79" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="J79" s="84" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O79" s="17" t="inlineStr">
-        <is>
-          <t>144 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="I80" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-      <c r="J80" s="84" t="n">
-        <v>0.04588119317025381</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="I81" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-      <c r="J81" s="84" t="inlineStr">
-        <is>
-          <t>12.0x5.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="I82" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-      <c r="J82" s="84" t="n">
-        <v>21.906656064</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="I83" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="I84" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="I85" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-    </row>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94">
-      <c r="B94" s="34" t="inlineStr">
-        <is>
-          <t>IZOLASYON DEGERLERI</t>
-        </is>
-      </c>
-      <c r="C94" s="35" t="n"/>
-      <c r="D94" s="35" t="n"/>
-      <c r="E94" s="35" t="n"/>
-      <c r="F94" s="35" t="n"/>
-      <c r="G94" s="15" t="n"/>
-    </row>
-    <row r="95">
-      <c r="B95" s="85" t="inlineStr">
-        <is>
-          <t>Primer Kademe</t>
-        </is>
-      </c>
-      <c r="C95" s="46" t="n"/>
-      <c r="D95" s="46" t="n"/>
-      <c r="E95" s="48" t="n"/>
-      <c r="F95" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G95" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekran </t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" s="86" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="C96" s="46" t="n"/>
-      <c r="D96" s="46" t="n"/>
-      <c r="E96" s="87" t="n"/>
-      <c r="F96" s="18" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="G96" s="19" t="inlineStr">
-        <is>
-          <t>Ø : 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VA Kademe </t>
-        </is>
-      </c>
-      <c r="C97" s="46" t="n"/>
-      <c r="D97" s="46" t="n"/>
-      <c r="E97" s="48" t="n"/>
-      <c r="F97" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G97" s="8" t="inlineStr">
-        <is>
-          <t>Ekstra</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="86" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="C98" s="46" t="n"/>
-      <c r="D98" s="46" t="n"/>
-      <c r="E98" s="87" t="n"/>
-      <c r="F98" s="18" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="G98" s="19" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" s="85" t="inlineStr">
-        <is>
-          <t>Primer-Sekonder</t>
-        </is>
-      </c>
-      <c r="C99" s="46" t="n"/>
-      <c r="D99" s="46" t="n"/>
-      <c r="E99" s="48" t="n"/>
-      <c r="F99" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G99" s="8" t="n"/>
-    </row>
-    <row r="100">
-      <c r="B100" s="86" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="C100" s="46" t="n"/>
-      <c r="D100" s="46" t="n"/>
-      <c r="E100" s="87" t="n"/>
-      <c r="F100" s="20" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="G100" s="16" t="n"/>
-    </row>
-    <row r="101">
-      <c r="B101" s="34" t="inlineStr">
-        <is>
-          <t>NÜVE ÖLÇÜLERİ (mm)</t>
-        </is>
-      </c>
-      <c r="C101" s="35" t="n"/>
-      <c r="D101" s="35" t="n"/>
-      <c r="E101" s="35" t="n"/>
-      <c r="F101" s="35" t="n"/>
-      <c r="G101" s="35" t="n"/>
-    </row>
-    <row r="102">
-      <c r="B102" s="7" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C102" s="7" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="D102" s="7" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="E102" s="7" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="F102" s="7" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="G102" s="8" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="B103" s="28" t="inlineStr">
-        <is>
-          <t>300.0 mm</t>
-        </is>
-      </c>
-      <c r="C103" s="29" t="inlineStr">
-        <is>
-          <t>166.0 mm</t>
-        </is>
-      </c>
-      <c r="D103" s="29" t="inlineStr">
-        <is>
-          <t>268.0 mm</t>
-        </is>
-      </c>
-      <c r="E103" s="29" t="inlineStr"/>
-      <c r="F103" s="29" t="inlineStr"/>
-      <c r="G103" s="30" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="B104" s="34" t="inlineStr">
-        <is>
-          <t>TRAFO ÖLÇÜLERİ (mm)</t>
-        </is>
-      </c>
-      <c r="C104" s="35" t="n"/>
-      <c r="D104" s="35" t="n"/>
-      <c r="E104" s="35" t="n"/>
-      <c r="F104" s="35" t="n"/>
-      <c r="G104" s="35" t="n"/>
-    </row>
-    <row r="105">
-      <c r="B105" s="7" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C105" s="7" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="D105" s="7" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="E105" s="7" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="F105" s="7" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="G105" s="8" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="28" t="inlineStr">
-        <is>
-          <t>300.0 mm</t>
-        </is>
-      </c>
-      <c r="C106" s="29" t="inlineStr">
-        <is>
-          <t>220.0 mm</t>
-        </is>
-      </c>
-      <c r="D106" s="29" t="inlineStr">
-        <is>
-          <t>250.0 mm</t>
-        </is>
-      </c>
-      <c r="E106" s="29" t="inlineStr">
-        <is>
-          <t>240.0 mm</t>
-        </is>
-      </c>
-      <c r="F106" s="29" t="inlineStr">
-        <is>
-          <t>174.0 mm</t>
-        </is>
-      </c>
-      <c r="G106" s="30" t="inlineStr">
+      <c r="B46" s="28" t="inlineStr">
+        <is>
+          <t>255.0 mm</t>
+        </is>
+      </c>
+      <c r="C46" s="29" t="inlineStr">
+        <is>
+          <t>205.0 mm</t>
+        </is>
+      </c>
+      <c r="D46" s="29" t="inlineStr">
+        <is>
+          <t>213.0 mm</t>
+        </is>
+      </c>
+      <c r="E46" s="29" t="inlineStr">
+        <is>
+          <t>203.0 mm</t>
+        </is>
+      </c>
+      <c r="F46" s="29" t="inlineStr">
+        <is>
+          <t>167.0 mm</t>
+        </is>
+      </c>
+      <c r="G46" s="30" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="32">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -3129,20 +2187,14 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
     <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="I71:M71"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
@@ -3209,16 +2261,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010010X40AET</t>
+          <t>H010010X85AET</t>
         </is>
       </c>
       <c r="C3" s="42" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="D3" s="42" t="n">
-        <v>0.04588119317025381</v>
+        <v>0.09065757649870158</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -3229,16 +2281,16 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H0103012X050PF</t>
+          <t>H010011X00AET</t>
         </is>
       </c>
       <c r="C4" s="42" t="inlineStr">
         <is>
-          <t>12.0x5.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D4" s="42" t="n">
-        <v>21.906656064</v>
+        <v>0.1254776145310749</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
@@ -3249,16 +2301,16 @@
       </c>
       <c r="B5" s="42" t="inlineStr">
         <is>
-          <t>H010010X90AET</t>
+          <t>H8X10YSBTCM</t>
         </is>
       </c>
       <c r="C5" s="42" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>10.0x8.0</t>
         </is>
       </c>
       <c r="D5" s="42" t="n">
-        <v>0.0565199025317491</v>
+        <v>37.43941823999999</v>
       </c>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
@@ -3267,19 +2319,9 @@
       <c r="A6" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="inlineStr">
-        <is>
-          <t>H010010X45AET</t>
-        </is>
-      </c>
-      <c r="C6" s="42" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="D6" s="42" t="n">
-        <v>0.0005540653046530511</v>
-      </c>
+      <c r="B6" s="42" t="n"/>
+      <c r="C6" s="42" t="n"/>
+      <c r="D6" s="42" t="n"/>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>
@@ -3287,19 +2329,9 @@
       <c r="A7" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="inlineStr">
-        <is>
-          <t>H010310X85PFI</t>
-        </is>
-      </c>
-      <c r="C7" s="42" t="inlineStr">
-        <is>
-          <t>10.0x8.5</t>
-        </is>
-      </c>
-      <c r="D7" s="42" t="n">
-        <v>0.2961181125</v>
-      </c>
+      <c r="B7" s="42" t="n"/>
+      <c r="C7" s="42" t="n"/>
+      <c r="D7" s="42" t="n"/>
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
     </row>
@@ -3307,19 +2339,9 @@
       <c r="A8" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="42" t="inlineStr">
-        <is>
-          <t>12X2YSAPFI</t>
-        </is>
-      </c>
-      <c r="C8" s="42" t="inlineStr">
-        <is>
-          <t>12.0x2.0</t>
-        </is>
-      </c>
-      <c r="D8" s="42" t="n">
-        <v>2.4081911712</v>
-      </c>
+      <c r="B8" s="42" t="n"/>
+      <c r="C8" s="42" t="n"/>
+      <c r="D8" s="42" t="n"/>
       <c r="E8" s="42" t="n"/>
       <c r="F8" s="42" t="n"/>
     </row>
@@ -3327,19 +2349,9 @@
       <c r="A9" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="42" t="inlineStr">
-        <is>
-          <t>H0103004X2,5PFI</t>
-        </is>
-      </c>
-      <c r="C9" s="42" t="inlineStr">
-        <is>
-          <t>4.0x2.5</t>
-        </is>
-      </c>
-      <c r="D9" s="42" t="n">
-        <v>5.273365815000001</v>
-      </c>
+      <c r="B9" s="42" t="n"/>
+      <c r="C9" s="42" t="n"/>
+      <c r="D9" s="42" t="n"/>
       <c r="E9" s="42" t="n"/>
       <c r="F9" s="42" t="n"/>
     </row>

--- a/media/reports/izolasyon_mono.xlsx
+++ b/media/reports/izolasyon_mono.xlsx
@@ -849,12 +849,12 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>13</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1019175" cy="1162050"/>
+    <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -876,7 +876,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -924,12 +924,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>5</col>
       <colOff>0</colOff>
-      <row>47</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4286250" cy="3705225"/>
+    <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -937,6 +937,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4286250" cy="3705225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1242,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
@@ -1275,7 +1300,7 @@
       </c>
       <c r="B1" s="44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Izolasyon Trafosu Mono Faz Hesap Ozeti</t>
+          <t xml:space="preserve"> Izolasyon Trafosu Trifaz Hesap Ozeti</t>
         </is>
       </c>
       <c r="C1" s="46" t="n"/>
@@ -1294,7 +1319,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44309.8552194185</v>
+        <v>44316.73272742907</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1341,7 +1366,7 @@
       </c>
       <c r="H3" s="73" t="inlineStr">
         <is>
-          <t>0.216 kg</t>
+          <t>4.173 kg</t>
         </is>
       </c>
       <c r="I3" s="51" t="n"/>
@@ -1353,7 +1378,7 @@
       <c r="K3" s="54" t="n"/>
       <c r="L3" s="75" t="inlineStr">
         <is>
-          <t>85.0 x 120.0 x 117.0</t>
+          <t>100.0 x 120.0 x 171.0</t>
         </is>
       </c>
       <c r="M3" s="53" t="n"/>
@@ -1382,7 +1407,7 @@
       </c>
       <c r="H4" s="73" t="inlineStr">
         <is>
-          <t>37.439 kg</t>
+          <t>1.378 kg</t>
         </is>
       </c>
       <c r="I4" s="51" t="n"/>
@@ -1394,7 +1419,7 @@
       <c r="K4" s="77" t="n"/>
       <c r="L4" s="78" t="inlineStr">
         <is>
-          <t>255.0 x 205.0 x 213.0</t>
+          <t>300.0 x 220.0 x 250.0</t>
         </is>
       </c>
       <c r="O4" s="77" t="n"/>
@@ -1433,7 +1458,7 @@
       <c r="K5" s="77" t="n"/>
       <c r="L5" s="78" t="inlineStr">
         <is>
-          <t>AVK2.5 / 0.0 / 45.0 - 171 Kose</t>
+          <t>AVK2.5 / 0.0 / 45.0 - 180 Kose</t>
         </is>
       </c>
       <c r="O5" s="77" t="n"/>
@@ -1460,7 +1485,7 @@
       </c>
       <c r="H6" s="73" t="inlineStr">
         <is>
-          <t>0.0 kg</t>
+          <t>1.48 kg</t>
         </is>
       </c>
       <c r="I6" s="51" t="n"/>
@@ -1472,7 +1497,7 @@
       <c r="K6" s="77" t="n"/>
       <c r="L6" s="78" t="inlineStr">
         <is>
-          <t>38.419 kg</t>
+          <t>0.0 kg</t>
         </is>
       </c>
       <c r="O6" s="77" t="n"/>
@@ -1499,7 +1524,7 @@
       </c>
       <c r="H7" s="73" t="inlineStr">
         <is>
-          <t>Al:37.656 //  Cu:0.0kg</t>
+          <t>Al:5.551 //  Cu:1.48kg</t>
         </is>
       </c>
       <c r="I7" s="51" t="n"/>
@@ -1541,25 +1566,25 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>333.0 V ( 333.0V )</t>
+          <t>425.0 V ( 425.641V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>443.0 V ( 442.2656V )</t>
+          <t>45.0 V ( 42.5641V )</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="81" t="inlineStr">
         <is>
-          <t>1 NOLU KADEME:</t>
+          <t>2 NOLU KADEME:</t>
         </is>
       </c>
       <c r="I11" s="81" t="inlineStr">
         <is>
-          <t>1 NOLU KADEME:</t>
+          <t>2 NOLU KADEME:</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1609,7 @@
       </c>
       <c r="J12" s="22" t="inlineStr">
         <is>
-          <t>Al</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="K12" s="22" t="n"/>
@@ -1598,7 +1623,7 @@
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
@@ -1622,7 +1647,7 @@
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>1.352848336452105</v>
+        <v>12.56637061435917</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1634,7 +1659,7 @@
         </is>
       </c>
       <c r="J14" s="21" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K14" s="21" t="n"/>
       <c r="L14" s="21" t="n"/>
@@ -1648,7 +1673,7 @@
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>2.164557338323367</v>
+        <v>20.10619298297468</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1660,7 +1685,7 @@
         </is>
       </c>
       <c r="J15" s="21" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="K15" s="21" t="n"/>
       <c r="L15" s="21" t="n"/>
@@ -1674,7 +1699,7 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1685,7 +1710,7 @@
         </is>
       </c>
       <c r="J16" s="21" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K16" s="21" t="n"/>
       <c r="L16" s="21" t="n"/>
@@ -1698,7 +1723,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>59.171504</v>
+        <v>1.058664</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1709,7 +1734,7 @@
         </is>
       </c>
       <c r="J17" s="21" t="n">
-        <v>173.33064</v>
+        <v>1.134052</v>
       </c>
       <c r="K17" s="21" t="n"/>
       <c r="L17" s="21" t="n"/>
@@ -1742,16 +1767,14 @@
         </is>
       </c>
       <c r="B19" s="84" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C19" s="84" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>128 sp</t>
+          <t>80 sp</t>
         </is>
       </c>
       <c r="I19" s="82" t="inlineStr">
@@ -1765,7 +1788,7 @@
       <c r="M19" s="24" t="n"/>
       <c r="O19" s="17" t="inlineStr">
         <is>
-          <t>170 sp</t>
+          <t>8 sp</t>
         </is>
       </c>
     </row>
@@ -1776,11 +1799,9 @@
         </is>
       </c>
       <c r="B20" s="84" t="n">
-        <v>0.09065757649870158</v>
-      </c>
-      <c r="C20" s="84" t="n">
-        <v>0.1254776145310749</v>
-      </c>
+        <v>0.03591962328621584</v>
+      </c>
+      <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
       <c r="I20" s="82" t="inlineStr">
@@ -1810,7 +1831,7 @@
       </c>
       <c r="J21" s="84" t="inlineStr">
         <is>
-          <t>10.0x8.0</t>
+          <t>10.0x5.0</t>
         </is>
       </c>
       <c r="K21" s="24" t="n"/>
@@ -1833,7 +1854,7 @@
         </is>
       </c>
       <c r="J22" s="84" t="n">
-        <v>37.43941823999999</v>
+        <v>0.4933126199999999</v>
       </c>
       <c r="K22" s="26" t="n"/>
       <c r="L22" s="26" t="n"/>
@@ -1889,7 +1910,11 @@
       <c r="C25" s="24" t="n"/>
       <c r="D25" s="24" t="n"/>
       <c r="E25" s="24" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>415.0 V ( 415.0V )</t>
+        </is>
+      </c>
       <c r="I25" s="82" t="inlineStr">
         <is>
           <t>Kapton :</t>
@@ -1899,270 +1924,532 @@
       <c r="K25" s="24" t="n"/>
       <c r="L25" s="24" t="n"/>
       <c r="M25" s="24" t="n"/>
-      <c r="O25" s="2" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1"/>
-    <row r="27" ht="15" customHeight="1"/>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1" thickBot="1"/>
-    <row r="30" ht="15" customHeight="1" thickBot="1"/>
-    <row r="31" ht="15" customHeight="1" thickBot="1"/>
-    <row r="32" ht="15" customHeight="1" thickBot="1"/>
-    <row r="33" ht="15" customHeight="1" thickBot="1"/>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>32.0 V ( 31.9231V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="81" t="inlineStr">
+        <is>
+          <t>1 NOLU KADEME:</t>
+        </is>
+      </c>
+      <c r="I26" s="81" t="inlineStr">
+        <is>
+          <t>1 NOLU KADEME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="B27" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="I27" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="J27" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="B28" s="83" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="J28" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="B29" s="83" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="I29" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="J29" s="83" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="B30" s="83" t="n">
+        <v>20.10619298297468</v>
+      </c>
+      <c r="I30" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="J30" s="83" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="B31" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="J31" s="83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="B32" s="83" t="n">
+        <v>39.939488</v>
+      </c>
+      <c r="I32" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="J32" s="83" t="n">
+        <v>3.402156</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" thickBot="1">
+      <c r="B33" s="83" t="inlineStr"/>
+      <c r="C33" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+      <c r="J33" s="83" t="inlineStr"/>
+      <c r="K33" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
     <row r="34" ht="15" customHeight="1" thickBot="1">
-      <c r="B34" s="34" t="inlineStr">
+      <c r="A34" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="B34" s="84" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" s="17" t="inlineStr">
+        <is>
+          <t>78 sp</t>
+        </is>
+      </c>
+      <c r="I34" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="O34" s="17" t="inlineStr">
+        <is>
+          <t>6 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" thickBot="1">
+      <c r="A35" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+      <c r="B35" s="84" t="n">
+        <v>1.355114902560527</v>
+      </c>
+      <c r="I35" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" thickBot="1">
+      <c r="A36" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+      <c r="I36" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+      <c r="J36" s="84" t="inlineStr">
+        <is>
+          <t>10.0x5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" thickBot="1">
+      <c r="A37" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+      <c r="I37" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+      <c r="J37" s="84" t="n">
+        <v>0.45929106</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" thickBot="1">
+      <c r="A38" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+      <c r="I38" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+      <c r="I39" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" thickBot="1">
+      <c r="A40" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="I40" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" thickBot="1"/>
+    <row r="42" ht="15" customHeight="1" thickBot="1"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49">
+      <c r="B49" s="34" t="inlineStr">
         <is>
           <t>IZOLASYON DEGERLERI</t>
         </is>
       </c>
-      <c r="C34" s="35" t="n"/>
-      <c r="D34" s="35" t="n"/>
-      <c r="E34" s="35" t="n"/>
-      <c r="F34" s="35" t="n"/>
-      <c r="G34" s="15" t="n"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="B35" s="85" t="inlineStr">
+      <c r="C49" s="35" t="n"/>
+      <c r="D49" s="35" t="n"/>
+      <c r="E49" s="35" t="n"/>
+      <c r="F49" s="35" t="n"/>
+      <c r="G49" s="15" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="85" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
         </is>
       </c>
-      <c r="C35" s="46" t="n"/>
-      <c r="D35" s="46" t="n"/>
-      <c r="E35" s="48" t="n"/>
-      <c r="F35" s="7" t="inlineStr">
+      <c r="C50" s="46" t="n"/>
+      <c r="D50" s="46" t="n"/>
+      <c r="E50" s="48" t="n"/>
+      <c r="F50" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G35" s="8" t="inlineStr">
+      <c r="G50" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekran </t>
         </is>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="86" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C36" s="46" t="n"/>
-      <c r="D36" s="46" t="n"/>
-      <c r="E36" s="87" t="n"/>
-      <c r="F36" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="19" t="inlineStr">
-        <is>
-          <t>Ø : 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="85" t="inlineStr">
+    <row r="51">
+      <c r="B51" s="86" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C51" s="46" t="n"/>
+      <c r="D51" s="46" t="n"/>
+      <c r="E51" s="87" t="n"/>
+      <c r="F51" s="18" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G51" s="19" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">VA Kademe </t>
         </is>
       </c>
-      <c r="C37" s="46" t="n"/>
-      <c r="D37" s="46" t="n"/>
-      <c r="E37" s="48" t="n"/>
-      <c r="F37" s="7" t="inlineStr">
+      <c r="C52" s="46" t="n"/>
+      <c r="D52" s="46" t="n"/>
+      <c r="E52" s="48" t="n"/>
+      <c r="F52" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G37" s="8" t="inlineStr">
+      <c r="G52" s="8" t="inlineStr">
         <is>
           <t>Ekstra</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="B38" s="86" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C38" s="46" t="n"/>
-      <c r="D38" s="46" t="n"/>
-      <c r="E38" s="87" t="n"/>
-      <c r="F38" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" s="19" t="inlineStr">
-        <is>
-          <t>Deger: 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="B39" s="85" t="inlineStr">
+    <row r="53">
+      <c r="B53" s="86" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C53" s="46" t="n"/>
+      <c r="D53" s="46" t="n"/>
+      <c r="E53" s="87" t="n"/>
+      <c r="F53" s="18" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G53" s="19" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="85" t="inlineStr">
         <is>
           <t>Primer-Sekonder</t>
         </is>
       </c>
-      <c r="C39" s="46" t="n"/>
-      <c r="D39" s="46" t="n"/>
-      <c r="E39" s="48" t="n"/>
-      <c r="F39" s="7" t="inlineStr">
+      <c r="C54" s="46" t="n"/>
+      <c r="D54" s="46" t="n"/>
+      <c r="E54" s="48" t="n"/>
+      <c r="F54" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G39" s="8" t="n"/>
-    </row>
-    <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="B40" s="86" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C40" s="46" t="n"/>
-      <c r="D40" s="46" t="n"/>
-      <c r="E40" s="87" t="n"/>
-      <c r="F40" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="16" t="n"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" thickBot="1">
-      <c r="B41" s="34" t="inlineStr">
+      <c r="G54" s="8" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="86" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C55" s="46" t="n"/>
+      <c r="D55" s="46" t="n"/>
+      <c r="E55" s="87" t="n"/>
+      <c r="F55" s="20" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G55" s="16" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="34" t="inlineStr">
         <is>
           <t>NÜVE ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C41" s="35" t="n"/>
-      <c r="D41" s="35" t="n"/>
-      <c r="E41" s="35" t="n"/>
-      <c r="F41" s="35" t="n"/>
-      <c r="G41" s="35" t="n"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" thickBot="1">
-      <c r="B42" s="7" t="inlineStr">
+      <c r="C56" s="35" t="n"/>
+      <c r="D56" s="35" t="n"/>
+      <c r="E56" s="35" t="n"/>
+      <c r="F56" s="35" t="n"/>
+      <c r="G56" s="35" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C42" s="7" t="inlineStr">
+      <c r="C57" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D42" s="7" t="inlineStr">
+      <c r="D57" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E42" s="7" t="inlineStr">
+      <c r="E57" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F42" s="7" t="inlineStr">
+      <c r="F57" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G42" s="8" t="inlineStr">
+      <c r="G57" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="28" t="inlineStr">
-        <is>
-          <t>255.0 mm</t>
-        </is>
-      </c>
-      <c r="C43" s="29" t="inlineStr">
-        <is>
-          <t>151.0 mm</t>
-        </is>
-      </c>
-      <c r="D43" s="29" t="inlineStr">
-        <is>
-          <t>258.0 mm</t>
-        </is>
-      </c>
-      <c r="E43" s="29" t="inlineStr"/>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="30" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="34" t="inlineStr">
+    <row r="58">
+      <c r="B58" s="28" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="C58" s="29" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="D58" s="29" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="30" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="34" t="inlineStr">
         <is>
           <t>TRAFO ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C44" s="35" t="n"/>
-      <c r="D44" s="35" t="n"/>
-      <c r="E44" s="35" t="n"/>
-      <c r="F44" s="35" t="n"/>
-      <c r="G44" s="35" t="n"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="7" t="inlineStr">
+      <c r="C59" s="35" t="n"/>
+      <c r="D59" s="35" t="n"/>
+      <c r="E59" s="35" t="n"/>
+      <c r="F59" s="35" t="n"/>
+      <c r="G59" s="35" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C45" s="7" t="inlineStr">
+      <c r="C60" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D45" s="7" t="inlineStr">
+      <c r="D60" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E45" s="7" t="inlineStr">
+      <c r="E60" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F45" s="7" t="inlineStr">
+      <c r="F60" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G45" s="8" t="inlineStr">
+      <c r="G60" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="28" t="inlineStr">
-        <is>
-          <t>255.0 mm</t>
-        </is>
-      </c>
-      <c r="C46" s="29" t="inlineStr">
-        <is>
-          <t>205.0 mm</t>
-        </is>
-      </c>
-      <c r="D46" s="29" t="inlineStr">
-        <is>
-          <t>213.0 mm</t>
-        </is>
-      </c>
-      <c r="E46" s="29" t="inlineStr">
-        <is>
-          <t>203.0 mm</t>
-        </is>
-      </c>
-      <c r="F46" s="29" t="inlineStr">
-        <is>
-          <t>167.0 mm</t>
-        </is>
-      </c>
-      <c r="G46" s="30" t="inlineStr">
+    <row r="61">
+      <c r="B61" s="28" t="inlineStr">
+        <is>
+          <t>300.0 mm</t>
+        </is>
+      </c>
+      <c r="C61" s="29" t="inlineStr">
+        <is>
+          <t>220.0 mm</t>
+        </is>
+      </c>
+      <c r="D61" s="29" t="inlineStr">
+        <is>
+          <t>250.0 mm</t>
+        </is>
+      </c>
+      <c r="E61" s="29" t="inlineStr">
+        <is>
+          <t>240.0 mm</t>
+        </is>
+      </c>
+      <c r="F61" s="29" t="inlineStr">
+        <is>
+          <t>174.0 mm</t>
+        </is>
+      </c>
+      <c r="G61" s="30" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2187,14 +2474,16 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
     <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I26:M26"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
@@ -2261,16 +2550,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010010X85AET</t>
+          <t>H010014X00AET</t>
         </is>
       </c>
       <c r="C3" s="42" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D3" s="42" t="n">
-        <v>0.09065757649870158</v>
+        <v>1.391034525846743</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2281,16 +2570,16 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H010011X00AET</t>
+          <t>H0100310X50YPFI</t>
         </is>
       </c>
       <c r="C4" s="42" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>10.0x5.0</t>
         </is>
       </c>
       <c r="D4" s="42" t="n">
-        <v>0.1254776145310749</v>
+        <v>0.9526036799999998</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
@@ -2299,19 +2588,9 @@
       <c r="A5" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="inlineStr">
-        <is>
-          <t>H8X10YSBTCM</t>
-        </is>
-      </c>
-      <c r="C5" s="42" t="inlineStr">
-        <is>
-          <t>10.0x8.0</t>
-        </is>
-      </c>
-      <c r="D5" s="42" t="n">
-        <v>37.43941823999999</v>
-      </c>
+      <c r="B5" s="42" t="n"/>
+      <c r="C5" s="42" t="n"/>
+      <c r="D5" s="42" t="n"/>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
     </row>

--- a/media/reports/izolasyon_mono.xlsx
+++ b/media/reports/izolasyon_mono.xlsx
@@ -849,12 +849,12 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>7</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="323850" cy="2952750"/>
+    <ext cx="1019175" cy="1162050"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -876,7 +876,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -899,9 +899,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>13</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -926,7 +926,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B1" s="44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Izolasyon Trafosu Trifaz Hesap Ozeti</t>
+          <t xml:space="preserve"> Izolasyon Trafosu Mono Faz Hesap Ozeti</t>
         </is>
       </c>
       <c r="C1" s="46" t="n"/>
@@ -1319,7 +1319,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44316.73272742907</v>
+        <v>44317.29203908633</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="H3" s="73" t="inlineStr">
         <is>
-          <t>4.173 kg</t>
+          <t>0.216 kg</t>
         </is>
       </c>
       <c r="I3" s="51" t="n"/>
@@ -1378,7 +1378,7 @@
       <c r="K3" s="54" t="n"/>
       <c r="L3" s="75" t="inlineStr">
         <is>
-          <t>100.0 x 120.0 x 171.0</t>
+          <t>85.0 x 120.0 x 117.0</t>
         </is>
       </c>
       <c r="M3" s="53" t="n"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="H4" s="73" t="inlineStr">
         <is>
-          <t>1.378 kg</t>
+          <t>0.206 kg</t>
         </is>
       </c>
       <c r="I4" s="51" t="n"/>
@@ -1419,7 +1419,7 @@
       <c r="K4" s="77" t="n"/>
       <c r="L4" s="78" t="inlineStr">
         <is>
-          <t>300.0 x 220.0 x 250.0</t>
+          <t>277.0 x 205.0 x 215.0</t>
         </is>
       </c>
       <c r="O4" s="77" t="n"/>
@@ -1458,7 +1458,7 @@
       <c r="K5" s="77" t="n"/>
       <c r="L5" s="78" t="inlineStr">
         <is>
-          <t>AVK2.5 / 0.0 / 45.0 - 180 Kose</t>
+          <t>AVK2.5 / 0.0 / 45.0 - 171 Kose</t>
         </is>
       </c>
       <c r="O5" s="77" t="n"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="H6" s="73" t="inlineStr">
         <is>
-          <t>1.48 kg</t>
+          <t>0.0 kg</t>
         </is>
       </c>
       <c r="I6" s="51" t="n"/>
@@ -1497,7 +1497,7 @@
       <c r="K6" s="77" t="n"/>
       <c r="L6" s="78" t="inlineStr">
         <is>
-          <t>0.0 kg</t>
+          <t>38.419 kg (Hazır Sac)</t>
         </is>
       </c>
       <c r="O6" s="77" t="n"/>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="H7" s="73" t="inlineStr">
         <is>
-          <t>Al:5.551 //  Cu:1.48kg</t>
+          <t>Al:0.422 //  Cu:0.0kg</t>
         </is>
       </c>
       <c r="I7" s="51" t="n"/>
@@ -1566,20 +1566,20 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>425.0 V ( 425.641V )</t>
+          <t>333.0 V ( 333.0V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>45.0 V ( 42.5641V )</t>
+          <t>334.0 V ( 333.0V )</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="81" t="inlineStr">
         <is>
-          <t>2 NOLU KADEME:</t>
+          <t>1 NOLU KADEME:</t>
         </is>
       </c>
       <c r="I11" s="81" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="J12" s="22" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Al</t>
         </is>
       </c>
       <c r="K12" s="22" t="n"/>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>12.56637061435917</v>
+        <v>1.352848336452105</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="J14" s="21" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K14" s="21" t="n"/>
       <c r="L14" s="21" t="n"/>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>20.10619298297468</v>
+        <v>2.164557338323367</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="J15" s="21" t="n">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K15" s="21" t="n"/>
       <c r="L15" s="21" t="n"/>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>1.058664</v>
+        <v>59.171504</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="J17" s="21" t="n">
-        <v>1.134052</v>
+        <v>0</v>
       </c>
       <c r="K17" s="21" t="n"/>
       <c r="L17" s="21" t="n"/>
@@ -1767,14 +1767,16 @@
         </is>
       </c>
       <c r="B19" s="84" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" s="24" t="n"/>
+        <v>0.85</v>
+      </c>
+      <c r="C19" s="84" t="n">
+        <v>1</v>
+      </c>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>80 sp</t>
+          <t>128 sp</t>
         </is>
       </c>
       <c r="I19" s="82" t="inlineStr">
@@ -1788,7 +1790,7 @@
       <c r="M19" s="24" t="n"/>
       <c r="O19" s="17" t="inlineStr">
         <is>
-          <t>8 sp</t>
+          <t>128 sp</t>
         </is>
       </c>
     </row>
@@ -1799,9 +1801,11 @@
         </is>
       </c>
       <c r="B20" s="84" t="n">
-        <v>0.03591962328621584</v>
-      </c>
-      <c r="C20" s="26" t="n"/>
+        <v>0.09065757649870158</v>
+      </c>
+      <c r="C20" s="84" t="n">
+        <v>0.1254776145310749</v>
+      </c>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
       <c r="I20" s="82" t="inlineStr">
@@ -1829,12 +1833,12 @@
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="J21" s="84" t="inlineStr">
-        <is>
-          <t>10.0x5.0</t>
-        </is>
-      </c>
-      <c r="K21" s="24" t="n"/>
+      <c r="J21" s="24" t="n"/>
+      <c r="K21" s="84" t="inlineStr">
+        <is>
+          <t>10.0x8.5</t>
+        </is>
+      </c>
       <c r="L21" s="24" t="n"/>
       <c r="M21" s="24" t="n"/>
     </row>
@@ -1853,10 +1857,10 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="J22" s="84" t="n">
-        <v>0.4933126199999999</v>
-      </c>
-      <c r="K22" s="26" t="n"/>
+      <c r="J22" s="26" t="n"/>
+      <c r="K22" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" s="26" t="n"/>
       <c r="M22" s="26" t="n"/>
     </row>
@@ -1910,11 +1914,7 @@
       <c r="C25" s="24" t="n"/>
       <c r="D25" s="24" t="n"/>
       <c r="E25" s="24" t="n"/>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>415.0 V ( 415.0V )</t>
-        </is>
-      </c>
+      <c r="G25" s="2" t="n"/>
       <c r="I25" s="82" t="inlineStr">
         <is>
           <t>Kapton :</t>
@@ -1926,141 +1926,80 @@
       <c r="M25" s="24" t="n"/>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>32.0 V ( 31.9231V )</t>
+          <t>333.0 V ( 333.0V )</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="81" t="inlineStr">
+      <c r="I26" s="81" t="inlineStr">
         <is>
           <t>1 NOLU KADEME:</t>
         </is>
       </c>
-      <c r="I26" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="82" t="inlineStr">
+      <c r="I27" s="82" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
       </c>
-      <c r="B27" s="83" t="inlineStr">
+      <c r="J27" s="83" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="I27" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J27" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="82" t="inlineStr">
+      <c r="I28" s="82" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
       </c>
-      <c r="B28" s="83" t="n">
-        <v>4</v>
-      </c>
-      <c r="I28" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
       <c r="J28" s="83" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="82" t="inlineStr">
+      <c r="I29" s="82" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
-      <c r="B29" s="83" t="n">
-        <v>12.56637061435917</v>
-      </c>
-      <c r="I29" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
       <c r="J29" s="83" t="n">
-        <v>50</v>
+        <v>1.170243263462198</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="82" t="inlineStr">
+      <c r="I30" s="82" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
-      <c r="B30" s="83" t="n">
-        <v>20.10619298297468</v>
-      </c>
-      <c r="I30" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
       <c r="J30" s="83" t="n">
-        <v>80</v>
+        <v>1.872389221539517</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="82" t="inlineStr">
+      <c r="I31" s="82" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
-      <c r="B31" s="83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
       <c r="J31" s="83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="82" t="inlineStr">
+      <c r="I32" s="82" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
-      <c r="B32" s="83" t="n">
-        <v>39.939488</v>
-      </c>
-      <c r="I32" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
       <c r="J32" s="83" t="n">
-        <v>3.402156</v>
+        <v>65.11281199999999</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1">
-      <c r="B33" s="83" t="inlineStr"/>
-      <c r="C33" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
       <c r="J33" s="83" t="inlineStr"/>
       <c r="K33" s="82" t="inlineStr">
         <is>
@@ -2069,107 +2008,65 @@
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="82" t="inlineStr">
+      <c r="I34" s="82" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B34" s="84" t="n">
-        <v>4</v>
-      </c>
-      <c r="G34" s="17" t="inlineStr">
-        <is>
-          <t>78 sp</t>
-        </is>
-      </c>
-      <c r="I34" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
+      <c r="J34" s="84" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K34" s="84" t="n">
+        <v>1</v>
       </c>
       <c r="O34" s="17" t="inlineStr">
         <is>
-          <t>6 sp</t>
+          <t>128 sp</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="82" t="inlineStr">
+      <c r="I35" s="82" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B35" s="84" t="n">
-        <v>1.355114902560527</v>
-      </c>
-      <c r="I35" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
+      <c r="J35" s="84" t="n">
+        <v>0.06765753595402052</v>
+      </c>
+      <c r="K35" s="84" t="n">
+        <v>0.138076603987797</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="82" t="inlineStr">
+      <c r="I36" s="82" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="I36" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-      <c r="J36" s="84" t="inlineStr">
-        <is>
-          <t>10.0x5.0</t>
-        </is>
-      </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="82" t="inlineStr">
+      <c r="I37" s="82" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="I37" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-      <c r="J37" s="84" t="n">
-        <v>0.45929106</v>
-      </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="82" t="inlineStr">
+      <c r="I38" s="82" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
       </c>
-      <c r="I38" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="82" t="inlineStr">
+      <c r="I39" s="82" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
       </c>
-      <c r="I39" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
     </row>
     <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
       <c r="I40" s="82" t="inlineStr">
         <is>
           <t>Kapton :</t>
@@ -2217,22 +2114,18 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="86" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
+      <c r="B51" s="86" t="n">
+        <v>0.19</v>
       </c>
       <c r="C51" s="46" t="n"/>
       <c r="D51" s="46" t="n"/>
       <c r="E51" s="87" t="n"/>
-      <c r="F51" s="18" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
+      <c r="F51" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="G51" s="19" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>Ø : 0.19</t>
         </is>
       </c>
     </row>
@@ -2257,22 +2150,18 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="86" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
+      <c r="B53" s="86" t="n">
+        <v>0.19</v>
       </c>
       <c r="C53" s="46" t="n"/>
       <c r="D53" s="46" t="n"/>
       <c r="E53" s="87" t="n"/>
-      <c r="F53" s="18" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
+      <c r="F53" s="18" t="n">
+        <v>2</v>
       </c>
       <c r="G53" s="19" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>Deger: 0.19</t>
         </is>
       </c>
     </row>
@@ -2293,18 +2182,14 @@
       <c r="G54" s="8" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="86" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
+      <c r="B55" s="86" t="n">
+        <v>0.19</v>
       </c>
       <c r="C55" s="46" t="n"/>
       <c r="D55" s="46" t="n"/>
       <c r="E55" s="87" t="n"/>
-      <c r="F55" s="20" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
+      <c r="F55" s="20" t="n">
+        <v>2</v>
       </c>
       <c r="G55" s="16" t="n"/>
     </row>
@@ -2355,17 +2240,17 @@
     <row r="58">
       <c r="B58" s="28" t="inlineStr">
         <is>
-          <t>0.0 mm</t>
+          <t>255.0 mm</t>
         </is>
       </c>
       <c r="C58" s="29" t="inlineStr">
         <is>
-          <t>0.0 mm</t>
+          <t>151.0 mm</t>
         </is>
       </c>
       <c r="D58" s="29" t="inlineStr">
         <is>
-          <t>0.0 mm</t>
+          <t>258.0 mm</t>
         </is>
       </c>
       <c r="E58" s="29" t="inlineStr"/>
@@ -2419,27 +2304,27 @@
     <row r="61">
       <c r="B61" s="28" t="inlineStr">
         <is>
-          <t>300.0 mm</t>
+          <t>277.0 mm</t>
         </is>
       </c>
       <c r="C61" s="29" t="inlineStr">
         <is>
-          <t>220.0 mm</t>
+          <t>205.0 mm</t>
         </is>
       </c>
       <c r="D61" s="29" t="inlineStr">
         <is>
-          <t>250.0 mm</t>
+          <t>215.0 mm</t>
         </is>
       </c>
       <c r="E61" s="29" t="inlineStr">
         <is>
-          <t>240.0 mm</t>
+          <t>225.0 mm</t>
         </is>
       </c>
       <c r="F61" s="29" t="inlineStr">
         <is>
-          <t>174.0 mm</t>
+          <t>167.0 mm</t>
         </is>
       </c>
       <c r="G61" s="30" t="inlineStr">
@@ -2449,7 +2334,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="33">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2483,7 +2368,6 @@
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="I26:M26"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
@@ -2550,16 +2434,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010014X00AET</t>
+          <t>H010010X85AET</t>
         </is>
       </c>
       <c r="C3" s="42" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="D3" s="42" t="n">
-        <v>1.391034525846743</v>
+        <v>0.09065757649870158</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2570,16 +2454,16 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H0100310X50YPFI</t>
+          <t>H010010X70AET</t>
         </is>
       </c>
       <c r="C4" s="42" t="inlineStr">
         <is>
-          <t>10.0x5.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D4" s="42" t="n">
-        <v>0.9526036799999998</v>
+        <v>0.06765753595402052</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
@@ -2588,9 +2472,19 @@
       <c r="A5" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="n"/>
-      <c r="C5" s="42" t="n"/>
-      <c r="D5" s="42" t="n"/>
+      <c r="B5" s="42" t="inlineStr">
+        <is>
+          <t>H010011X00AET</t>
+        </is>
+      </c>
+      <c r="C5" s="42" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D5" s="42" t="n">
+        <v>0.2635542185188718</v>
+      </c>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
     </row>
@@ -2598,9 +2492,19 @@
       <c r="A6" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="n"/>
-      <c r="C6" s="42" t="n"/>
-      <c r="D6" s="42" t="n"/>
+      <c r="B6" s="42" t="inlineStr">
+        <is>
+          <t>H010310X85PFI</t>
+        </is>
+      </c>
+      <c r="C6" s="42" t="inlineStr">
+        <is>
+          <t>10.0x8.5</t>
+        </is>
+      </c>
+      <c r="D6" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>

--- a/media/reports/izolasyon_mono.xlsx
+++ b/media/reports/izolasyon_mono.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -652,25 +652,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -700,37 +718,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -849,12 +846,12 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>13</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1019175" cy="1162050"/>
+    <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -874,7 +871,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>5</col>
       <colOff>0</colOff>
       <row>10</row>
       <rowOff>0</rowOff>
@@ -899,7 +896,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>5</col>
       <colOff>0</colOff>
       <row>25</row>
       <rowOff>0</rowOff>
@@ -926,7 +923,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -949,12 +946,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>5</col>
       <colOff>0</colOff>
-      <row>62</row>
+      <row>55</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4286250" cy="3705225"/>
+    <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -962,6 +959,56 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>70</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="323850" cy="2952750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>107</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4286250" cy="3705225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1267,7 +1314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
@@ -1298,17 +1345,17 @@
           <t>Trafo Tipi :</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="55" t="inlineStr">
         <is>
           <t xml:space="preserve"> Izolasyon Trafosu Mono Faz Hesap Ozeti</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n"/>
-      <c r="D1" s="46" t="n"/>
-      <c r="E1" s="46" t="n"/>
-      <c r="F1" s="46" t="n"/>
-      <c r="G1" s="46" t="n"/>
-      <c r="H1" s="46" t="n"/>
+      <c r="C1" s="49" t="n"/>
+      <c r="D1" s="49" t="n"/>
+      <c r="E1" s="49" t="n"/>
+      <c r="F1" s="49" t="n"/>
+      <c r="G1" s="49" t="n"/>
+      <c r="H1" s="49" t="n"/>
       <c r="I1" s="11" t="n"/>
       <c r="J1" s="6" t="inlineStr">
         <is>
@@ -1318,31 +1365,31 @@
       <c r="K1" s="27" t="n"/>
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
-      <c r="N1" s="70" t="n">
-        <v>44317.29203908633</v>
-      </c>
-      <c r="O1" s="48" t="n"/>
+      <c r="N1" s="57" t="n">
+        <v>44321.49918487758</v>
+      </c>
+      <c r="O1" s="50" t="n"/>
     </row>
     <row r="2" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="inlineStr">
+      <c r="A2" s="58" t="inlineStr">
         <is>
           <t>Değerler</t>
         </is>
       </c>
-      <c r="B2" s="46" t="n"/>
-      <c r="C2" s="46" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="46" t="n"/>
-      <c r="F2" s="46" t="n"/>
-      <c r="G2" s="46" t="n"/>
-      <c r="H2" s="46" t="n"/>
-      <c r="I2" s="46" t="n"/>
-      <c r="J2" s="46" t="n"/>
-      <c r="K2" s="46" t="n"/>
-      <c r="L2" s="46" t="n"/>
-      <c r="M2" s="46" t="n"/>
-      <c r="N2" s="46" t="n"/>
-      <c r="O2" s="48" t="n"/>
+      <c r="B2" s="49" t="n"/>
+      <c r="C2" s="49" t="n"/>
+      <c r="D2" s="49" t="n"/>
+      <c r="E2" s="49" t="n"/>
+      <c r="F2" s="49" t="n"/>
+      <c r="G2" s="49" t="n"/>
+      <c r="H2" s="49" t="n"/>
+      <c r="I2" s="49" t="n"/>
+      <c r="J2" s="49" t="n"/>
+      <c r="K2" s="49" t="n"/>
+      <c r="L2" s="49" t="n"/>
+      <c r="M2" s="49" t="n"/>
+      <c r="N2" s="49" t="n"/>
+      <c r="O2" s="50" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -1350,40 +1397,40 @@
           <t>Güç :</t>
         </is>
       </c>
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>500.0 VA</t>
+      <c r="B3" s="52" t="inlineStr">
+        <is>
+          <t>2100.0 VA</t>
         </is>
       </c>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="72" t="n"/>
       <c r="E3" s="72" t="n"/>
-      <c r="F3" s="51" t="n"/>
+      <c r="F3" s="54" t="n"/>
       <c r="G3" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Al) :</t>
         </is>
       </c>
-      <c r="H3" s="73" t="inlineStr">
-        <is>
-          <t>0.216 kg</t>
-        </is>
-      </c>
-      <c r="I3" s="51" t="n"/>
-      <c r="J3" s="74" t="inlineStr">
+      <c r="H3" s="53" t="inlineStr">
+        <is>
+          <t>0.0 kg</t>
+        </is>
+      </c>
+      <c r="I3" s="54" t="n"/>
+      <c r="J3" s="73" t="inlineStr">
         <is>
           <t xml:space="preserve">Karkas Ölçüleri : </t>
         </is>
       </c>
-      <c r="K3" s="54" t="n"/>
-      <c r="L3" s="75" t="inlineStr">
-        <is>
-          <t>85.0 x 120.0 x 117.0</t>
-        </is>
-      </c>
-      <c r="M3" s="53" t="n"/>
-      <c r="N3" s="53" t="n"/>
-      <c r="O3" s="54" t="n"/>
+      <c r="K3" s="60" t="n"/>
+      <c r="L3" s="74" t="inlineStr">
+        <is>
+          <t>65.0 x 120.0 x 88.0</t>
+        </is>
+      </c>
+      <c r="M3" s="59" t="n"/>
+      <c r="N3" s="59" t="n"/>
+      <c r="O3" s="60" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -1391,7 +1438,7 @@
           <t>Sac kk :</t>
         </is>
       </c>
-      <c r="B4" s="71" t="inlineStr">
+      <c r="B4" s="52" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
@@ -1399,30 +1446,30 @@
       <c r="C4" s="72" t="n"/>
       <c r="D4" s="72" t="n"/>
       <c r="E4" s="72" t="n"/>
-      <c r="F4" s="51" t="n"/>
+      <c r="F4" s="54" t="n"/>
       <c r="G4" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Al):</t>
         </is>
       </c>
-      <c r="H4" s="73" t="inlineStr">
-        <is>
-          <t>0.206 kg</t>
-        </is>
-      </c>
-      <c r="I4" s="51" t="n"/>
-      <c r="J4" s="76" t="inlineStr">
+      <c r="H4" s="53" t="inlineStr">
+        <is>
+          <t>0.0 kg</t>
+        </is>
+      </c>
+      <c r="I4" s="54" t="n"/>
+      <c r="J4" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Trafo Ölçüleri : </t>
         </is>
       </c>
-      <c r="K4" s="77" t="n"/>
-      <c r="L4" s="78" t="inlineStr">
-        <is>
-          <t>277.0 x 205.0 x 215.0</t>
-        </is>
-      </c>
-      <c r="O4" s="77" t="n"/>
+      <c r="K4" s="76" t="n"/>
+      <c r="L4" s="77" t="inlineStr">
+        <is>
+          <t>195.0 x 185.0 x 163.0</t>
+        </is>
+      </c>
+      <c r="O4" s="76" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -1430,7 +1477,7 @@
           <t>Sac ©</t>
         </is>
       </c>
-      <c r="B5" s="71" t="inlineStr">
+      <c r="B5" s="52" t="inlineStr">
         <is>
           <t>0.5 mm</t>
         </is>
@@ -1438,30 +1485,30 @@
       <c r="C5" s="72" t="n"/>
       <c r="D5" s="72" t="n"/>
       <c r="E5" s="72" t="n"/>
-      <c r="F5" s="51" t="n"/>
+      <c r="F5" s="54" t="n"/>
       <c r="G5" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H5" s="73" t="inlineStr">
-        <is>
-          <t>0.0 kg</t>
-        </is>
-      </c>
-      <c r="I5" s="51" t="n"/>
-      <c r="J5" s="76" t="inlineStr">
+      <c r="H5" s="53" t="inlineStr">
+        <is>
+          <t>11.31 kg</t>
+        </is>
+      </c>
+      <c r="I5" s="54" t="n"/>
+      <c r="J5" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Klemens &amp; Ayak : </t>
         </is>
       </c>
-      <c r="K5" s="77" t="n"/>
-      <c r="L5" s="78" t="inlineStr">
+      <c r="K5" s="76" t="n"/>
+      <c r="L5" s="77" t="inlineStr">
         <is>
           <t>AVK2.5 / 0.0 / 45.0 - 171 Kose</t>
         </is>
       </c>
-      <c r="O5" s="77" t="n"/>
+      <c r="O5" s="76" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1469,38 +1516,38 @@
           <t>Gauss :</t>
         </is>
       </c>
-      <c r="B6" s="71" t="inlineStr">
-        <is>
-          <t>11500.0</t>
+      <c r="B6" s="52" t="inlineStr">
+        <is>
+          <t>8850.0</t>
         </is>
       </c>
       <c r="C6" s="72" t="n"/>
       <c r="D6" s="72" t="n"/>
       <c r="E6" s="72" t="n"/>
-      <c r="F6" s="51" t="n"/>
+      <c r="F6" s="54" t="n"/>
       <c r="G6" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H6" s="73" t="inlineStr">
-        <is>
-          <t>0.0 kg</t>
-        </is>
-      </c>
-      <c r="I6" s="51" t="n"/>
-      <c r="J6" s="76" t="inlineStr">
+      <c r="H6" s="53" t="inlineStr">
+        <is>
+          <t>2.007 kg</t>
+        </is>
+      </c>
+      <c r="I6" s="54" t="n"/>
+      <c r="J6" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Sac Agirlik : </t>
         </is>
       </c>
-      <c r="K6" s="77" t="n"/>
-      <c r="L6" s="78" t="inlineStr">
-        <is>
-          <t>38.419 kg (Hazır Sac)</t>
-        </is>
-      </c>
-      <c r="O6" s="77" t="n"/>
+      <c r="K6" s="76" t="n"/>
+      <c r="L6" s="77" t="inlineStr">
+        <is>
+          <t>71.07 kg(Kesme Sac)</t>
+        </is>
+      </c>
+      <c r="O6" s="76" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="inlineStr">
@@ -1508,7 +1555,7 @@
           <t>Frekans :</t>
         </is>
       </c>
-      <c r="B7" s="71" t="inlineStr">
+      <c r="B7" s="52" t="inlineStr">
         <is>
           <t>50.0 Hz</t>
         </is>
@@ -1516,20 +1563,20 @@
       <c r="C7" s="72" t="n"/>
       <c r="D7" s="72" t="n"/>
       <c r="E7" s="72" t="n"/>
-      <c r="F7" s="51" t="n"/>
+      <c r="F7" s="54" t="n"/>
       <c r="G7" s="10" t="inlineStr">
         <is>
           <t>Toplam Agirlik :</t>
         </is>
       </c>
-      <c r="H7" s="73" t="inlineStr">
-        <is>
-          <t>Al:0.422 //  Cu:0.0kg</t>
-        </is>
-      </c>
-      <c r="I7" s="51" t="n"/>
-      <c r="J7" s="79" t="n"/>
-      <c r="K7" s="80" t="n"/>
+      <c r="H7" s="53" t="inlineStr">
+        <is>
+          <t>Al:0.0 //  Cu:13.317kg</t>
+        </is>
+      </c>
+      <c r="I7" s="54" t="n"/>
+      <c r="J7" s="78" t="n"/>
+      <c r="K7" s="79" t="n"/>
       <c r="L7" s="32" t="n"/>
       <c r="M7" s="31" t="n"/>
       <c r="N7" s="31" t="n"/>
@@ -1539,77 +1586,77 @@
       <c r="A8" s="1" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="67" t="inlineStr">
+      <c r="A9" s="48" t="inlineStr">
         <is>
           <t>Primer</t>
         </is>
       </c>
-      <c r="B9" s="46" t="n"/>
-      <c r="C9" s="46" t="n"/>
-      <c r="D9" s="46" t="n"/>
-      <c r="E9" s="46" t="n"/>
-      <c r="F9" s="46" t="n"/>
-      <c r="G9" s="48" t="n"/>
-      <c r="I9" s="68" t="inlineStr">
+      <c r="B9" s="49" t="n"/>
+      <c r="C9" s="49" t="n"/>
+      <c r="D9" s="49" t="n"/>
+      <c r="E9" s="49" t="n"/>
+      <c r="F9" s="49" t="n"/>
+      <c r="G9" s="50" t="n"/>
+      <c r="I9" s="51" t="inlineStr">
         <is>
           <t>Sekonder</t>
         </is>
       </c>
-      <c r="J9" s="46" t="n"/>
-      <c r="K9" s="46" t="n"/>
-      <c r="L9" s="46" t="n"/>
-      <c r="M9" s="46" t="n"/>
-      <c r="N9" s="46" t="n"/>
-      <c r="O9" s="48" t="n"/>
+      <c r="J9" s="49" t="n"/>
+      <c r="K9" s="49" t="n"/>
+      <c r="L9" s="49" t="n"/>
+      <c r="M9" s="49" t="n"/>
+      <c r="N9" s="49" t="n"/>
+      <c r="O9" s="50" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>333.0 V ( 333.0V )</t>
+          <t>470.0 V ( 470.7333V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>334.0 V ( 333.0V )</t>
+          <t>25.0 V ( 24.5333V )</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="81" t="inlineStr">
+      <c r="A11" s="80" t="inlineStr">
+        <is>
+          <t>5 NOLU KADEME:</t>
+        </is>
+      </c>
+      <c r="I11" s="80" t="inlineStr">
         <is>
           <t>1 NOLU KADEME:</t>
         </is>
       </c>
-      <c r="I11" s="81" t="inlineStr">
-        <is>
-          <t>2 NOLU KADEME:</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="82" t="inlineStr">
+      <c r="A12" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
       </c>
       <c r="B12" s="26" t="inlineStr">
         <is>
-          <t>Al</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="C12" s="22" t="n"/>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="n"/>
-      <c r="I12" s="82" t="inlineStr">
+      <c r="I12" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
       </c>
       <c r="J12" s="22" t="inlineStr">
         <is>
-          <t>Al</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="K12" s="22" t="n"/>
@@ -1617,49 +1664,49 @@
       <c r="M12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="82" t="inlineStr">
+      <c r="A13" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="n"/>
-      <c r="I13" s="82" t="inlineStr">
+      <c r="I13" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
       </c>
       <c r="J13" s="21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13" s="21" t="n"/>
       <c r="L13" s="21" t="n"/>
       <c r="M13" s="21" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="82" t="inlineStr">
+      <c r="A14" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>1.352848336452105</v>
+        <v>3.141592653589793</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="n"/>
       <c r="G14" s="1" t="n"/>
-      <c r="I14" s="82" t="inlineStr">
+      <c r="I14" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
       <c r="J14" s="21" t="n">
-        <v>85</v>
+        <v>19.63495408493621</v>
       </c>
       <c r="K14" s="21" t="n"/>
       <c r="L14" s="21" t="n"/>
@@ -1667,25 +1714,25 @@
       <c r="O14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="82" t="inlineStr">
+      <c r="A15" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>2.164557338323367</v>
+        <v>9.424777960769379</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="n"/>
       <c r="G15" s="2" t="n"/>
-      <c r="I15" s="82" t="inlineStr">
+      <c r="I15" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
       <c r="J15" s="21" t="n">
-        <v>136</v>
+        <v>58.90486225480862</v>
       </c>
       <c r="K15" s="21" t="n"/>
       <c r="L15" s="21" t="n"/>
@@ -1693,56 +1740,56 @@
       <c r="O15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="82" t="inlineStr">
+      <c r="A16" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="n"/>
-      <c r="I16" s="82" t="inlineStr">
+      <c r="I16" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="21" t="n"/>
       <c r="L16" s="21" t="n"/>
       <c r="M16" s="21" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="82" t="inlineStr">
+      <c r="A17" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>59.171504</v>
+        <v>14.01948</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="n"/>
-      <c r="I17" s="82" t="inlineStr">
+      <c r="I17" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0</v>
+        <v>11.750048</v>
       </c>
       <c r="K17" s="21" t="n"/>
       <c r="L17" s="21" t="n"/>
       <c r="M17" s="21" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="83" t="inlineStr"/>
-      <c r="C18" s="82" t="inlineStr">
+      <c r="B18" s="82" t="inlineStr"/>
+      <c r="C18" s="81" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
@@ -1750,8 +1797,8 @@
       <c r="D18" s="25" t="n"/>
       <c r="E18" s="25" t="n"/>
       <c r="G18" s="2" t="n"/>
-      <c r="J18" s="83" t="inlineStr"/>
-      <c r="K18" s="82" t="inlineStr">
+      <c r="J18" s="82" t="inlineStr"/>
+      <c r="K18" s="81" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
@@ -1761,65 +1808,65 @@
       <c r="O18" s="2" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="82" t="inlineStr">
+      <c r="A19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B19" s="84" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C19" s="84" t="n">
-        <v>1</v>
-      </c>
+      <c r="B19" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>128 sp</t>
-        </is>
-      </c>
-      <c r="I19" s="82" t="inlineStr">
+          <t>307 sp</t>
+        </is>
+      </c>
+      <c r="I19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="J19" s="24" t="n"/>
+      <c r="J19" s="83" t="n">
+        <v>5</v>
+      </c>
       <c r="K19" s="24" t="n"/>
       <c r="L19" s="24" t="n"/>
       <c r="M19" s="24" t="n"/>
       <c r="O19" s="17" t="inlineStr">
         <is>
-          <t>128 sp</t>
+          <t>16 sp</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="82" t="inlineStr">
+      <c r="A20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B20" s="84" t="n">
-        <v>0.09065757649870158</v>
-      </c>
-      <c r="C20" s="84" t="n">
-        <v>0.1254776145310749</v>
-      </c>
+      <c r="B20" s="83" t="n">
+        <v>0.3831784097637966</v>
+      </c>
+      <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
-      <c r="I20" s="82" t="inlineStr">
+      <c r="I20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="J20" s="26" t="n"/>
+      <c r="J20" s="83" t="n">
+        <v>2.007191380889429</v>
+      </c>
       <c r="K20" s="26" t="n"/>
       <c r="L20" s="26" t="n"/>
       <c r="M20" s="26" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="82" t="inlineStr">
+      <c r="A21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
@@ -1828,22 +1875,18 @@
       <c r="C21" s="24" t="n"/>
       <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
-      <c r="I21" s="82" t="inlineStr">
+      <c r="I21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
       <c r="J21" s="24" t="n"/>
-      <c r="K21" s="84" t="inlineStr">
-        <is>
-          <t>10.0x8.5</t>
-        </is>
-      </c>
+      <c r="K21" s="24" t="n"/>
       <c r="L21" s="24" t="n"/>
       <c r="M21" s="24" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="82" t="inlineStr">
+      <c r="A22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
@@ -1852,20 +1895,18 @@
       <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
-      <c r="I22" s="82" t="inlineStr">
+      <c r="I22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
       <c r="J22" s="26" t="n"/>
-      <c r="K22" s="84" t="n">
-        <v>0</v>
-      </c>
+      <c r="K22" s="26" t="n"/>
       <c r="L22" s="26" t="n"/>
       <c r="M22" s="26" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="82" t="inlineStr">
+      <c r="A23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
@@ -1874,7 +1915,7 @@
       <c r="C23" s="24" t="n"/>
       <c r="D23" s="24" t="n"/>
       <c r="E23" s="24" t="n"/>
-      <c r="I23" s="82" t="inlineStr">
+      <c r="I23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
@@ -1885,7 +1926,7 @@
       <c r="M23" s="24" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="82" t="inlineStr">
+      <c r="A24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
@@ -1894,7 +1935,7 @@
       <c r="C24" s="26" t="n"/>
       <c r="D24" s="26" t="n"/>
       <c r="E24" s="26" t="n"/>
-      <c r="I24" s="82" t="inlineStr">
+      <c r="I24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
@@ -1905,7 +1946,7 @@
       <c r="M24" s="26" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="82" t="inlineStr">
+      <c r="A25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1914,8 +1955,12 @@
       <c r="C25" s="24" t="n"/>
       <c r="D25" s="24" t="n"/>
       <c r="E25" s="24" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="I25" s="82" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>440.0 V ( 440.0667V )</t>
+        </is>
+      </c>
+      <c r="I25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1924,425 +1969,841 @@
       <c r="K25" s="24" t="n"/>
       <c r="L25" s="24" t="n"/>
       <c r="M25" s="24" t="n"/>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>333.0 V ( 333.0V )</t>
-        </is>
-      </c>
+      <c r="O25" s="2" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="I26" s="81" t="inlineStr">
+      <c r="A26" s="80" t="inlineStr">
+        <is>
+          <t>4 NOLU KADEME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="81" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="B27" s="82" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="81" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="B28" s="82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="81" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="B29" s="82" t="n">
+        <v>3.141592653589793</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="81" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="B30" s="82" t="n">
+        <v>9.424777960769379</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="81" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="B31" s="82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="81" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="B32" s="82" t="n">
+        <v>2.102922</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" thickBot="1">
+      <c r="B33" s="82" t="inlineStr"/>
+      <c r="C33" s="81" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" thickBot="1">
+      <c r="A34" s="81" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="B34" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="17" t="inlineStr">
+        <is>
+          <t>287 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" thickBot="1">
+      <c r="A35" s="81" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+      <c r="B35" s="83" t="n">
+        <v>0.05747676146456948</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" thickBot="1">
+      <c r="A36" s="81" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" thickBot="1">
+      <c r="A37" s="81" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" thickBot="1">
+      <c r="A38" s="81" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="81" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" thickBot="1">
+      <c r="A40" s="81" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="G40" s="17" t="inlineStr">
+        <is>
+          <t>435.0 V ( 435.4667V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" thickBot="1">
+      <c r="A41" s="80" t="inlineStr">
+        <is>
+          <t>3 NOLU KADEME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" thickBot="1">
+      <c r="A42" s="81" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="B42" s="82" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="81" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="B43" s="82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="81" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="B44" s="82" t="n">
+        <v>3.141592653589793</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="81" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="B45" s="82" t="n">
+        <v>9.424777960769379</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="81" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="B46" s="82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="81" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="B47" s="82" t="n">
+        <v>15.97167</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="82" t="inlineStr"/>
+      <c r="C48" s="81" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="81" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="B49" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="17" t="inlineStr">
+        <is>
+          <t>284 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="81" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+      <c r="B50" s="83" t="n">
+        <v>0.4365353858967764</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="81" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="81" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="81" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="81" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="81" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="G55" s="17" t="inlineStr">
+        <is>
+          <t>400.0 V ( 400.2V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="80" t="inlineStr">
+        <is>
+          <t>2 NOLU KADEME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="81" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="B57" s="82" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="81" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="B58" s="82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="81" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="B59" s="82" t="n">
+        <v>3.141592653589793</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="81" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="B60" s="82" t="n">
+        <v>9.424777960769379</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="81" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="B61" s="82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="81" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="B62" s="82" t="n">
+        <v>73.45877400000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="82" t="inlineStr"/>
+      <c r="C63" s="81" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="81" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="B64" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="17" t="inlineStr">
+        <is>
+          <t>261 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="81" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+      <c r="B65" s="83" t="n">
+        <v>2.007764639238983</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="81" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="81" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="81" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="81" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="81" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="G70" s="17" t="inlineStr">
+        <is>
+          <t>230.0 V ( 230.0V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="80" t="inlineStr">
         <is>
           <t>1 NOLU KADEME:</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="I27" s="82" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
       </c>
-      <c r="J27" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="I28" s="82" t="inlineStr">
+      <c r="B72" s="82" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
       </c>
-      <c r="J28" s="83" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" thickBot="1">
-      <c r="I29" s="82" t="inlineStr">
+      <c r="B73" s="82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
-      <c r="J29" s="83" t="n">
-        <v>1.170243263462198</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" thickBot="1">
-      <c r="I30" s="82" t="inlineStr">
+      <c r="B74" s="82" t="n">
+        <v>12.56637061435917</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
-      <c r="J30" s="83" t="n">
-        <v>1.872389221539517</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" thickBot="1">
-      <c r="I31" s="82" t="inlineStr">
+      <c r="B75" s="82" t="n">
+        <v>37.69911184307752</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
-      <c r="J31" s="83" t="n">
+      <c r="B76" s="82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="81" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="B77" s="82" t="n">
+        <v>77.06085600000002</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="82" t="inlineStr"/>
+      <c r="C78" s="81" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="81" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="B79" s="83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" s="17" t="inlineStr">
+        <is>
+          <t>150 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="81" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+      <c r="B80" s="83" t="n">
+        <v>8.424864904295147</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="81" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="81" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="81" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="81" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="81" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+    </row>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94">
+      <c r="B94" s="34" t="inlineStr">
+        <is>
+          <t>IZOLASYON DEGERLERI</t>
+        </is>
+      </c>
+      <c r="C94" s="35" t="n"/>
+      <c r="D94" s="35" t="n"/>
+      <c r="E94" s="35" t="n"/>
+      <c r="F94" s="35" t="n"/>
+      <c r="G94" s="15" t="n"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="84" t="inlineStr">
+        <is>
+          <t>Primer Kademe</t>
+        </is>
+      </c>
+      <c r="C95" s="49" t="n"/>
+      <c r="D95" s="49" t="n"/>
+      <c r="E95" s="50" t="n"/>
+      <c r="F95" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G95" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ekran </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="85" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C96" s="49" t="n"/>
+      <c r="D96" s="49" t="n"/>
+      <c r="E96" s="86" t="n"/>
+      <c r="F96" s="18" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" thickBot="1">
-      <c r="I32" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J32" s="83" t="n">
-        <v>65.11281199999999</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" thickBot="1">
-      <c r="J33" s="83" t="inlineStr"/>
-      <c r="K33" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" thickBot="1">
-      <c r="I34" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="J34" s="84" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K34" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="17" t="inlineStr">
-        <is>
-          <t>128 sp</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="I35" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-      <c r="J35" s="84" t="n">
-        <v>0.06765753595402052</v>
-      </c>
-      <c r="K35" s="84" t="n">
-        <v>0.138076603987797</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="I36" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="I37" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="I38" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="I39" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="I40" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" thickBot="1"/>
-    <row r="42" ht="15" customHeight="1" thickBot="1"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49">
-      <c r="B49" s="34" t="inlineStr">
-        <is>
-          <t>IZOLASYON DEGERLERI</t>
-        </is>
-      </c>
-      <c r="C49" s="35" t="n"/>
-      <c r="D49" s="35" t="n"/>
-      <c r="E49" s="35" t="n"/>
-      <c r="F49" s="35" t="n"/>
-      <c r="G49" s="15" t="n"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="85" t="inlineStr">
-        <is>
-          <t>Primer Kademe</t>
-        </is>
-      </c>
-      <c r="C50" s="46" t="n"/>
-      <c r="D50" s="46" t="n"/>
-      <c r="E50" s="48" t="n"/>
-      <c r="F50" s="7" t="inlineStr">
+      <c r="G96" s="19" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VA Kademe </t>
+        </is>
+      </c>
+      <c r="C97" s="49" t="n"/>
+      <c r="D97" s="49" t="n"/>
+      <c r="E97" s="50" t="n"/>
+      <c r="F97" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G50" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekran </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="86" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C51" s="46" t="n"/>
-      <c r="D51" s="46" t="n"/>
-      <c r="E51" s="87" t="n"/>
-      <c r="F51" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="19" t="inlineStr">
-        <is>
-          <t>Ø : 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VA Kademe </t>
-        </is>
-      </c>
-      <c r="C52" s="46" t="n"/>
-      <c r="D52" s="46" t="n"/>
-      <c r="E52" s="48" t="n"/>
-      <c r="F52" s="7" t="inlineStr">
+      <c r="G97" s="8" t="inlineStr">
+        <is>
+          <t>Ekstra</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="85" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C98" s="49" t="n"/>
+      <c r="D98" s="49" t="n"/>
+      <c r="E98" s="86" t="n"/>
+      <c r="F98" s="18" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G98" s="19" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="84" t="inlineStr">
+        <is>
+          <t>Primer-Sekonder</t>
+        </is>
+      </c>
+      <c r="C99" s="49" t="n"/>
+      <c r="D99" s="49" t="n"/>
+      <c r="E99" s="50" t="n"/>
+      <c r="F99" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G52" s="8" t="inlineStr">
-        <is>
-          <t>Ekstra</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="86" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C53" s="46" t="n"/>
-      <c r="D53" s="46" t="n"/>
-      <c r="E53" s="87" t="n"/>
-      <c r="F53" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" s="19" t="inlineStr">
-        <is>
-          <t>Deger: 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="85" t="inlineStr">
-        <is>
-          <t>Primer-Sekonder</t>
-        </is>
-      </c>
-      <c r="C54" s="46" t="n"/>
-      <c r="D54" s="46" t="n"/>
-      <c r="E54" s="48" t="n"/>
-      <c r="F54" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G54" s="8" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="86" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C55" s="46" t="n"/>
-      <c r="D55" s="46" t="n"/>
-      <c r="E55" s="87" t="n"/>
-      <c r="F55" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" s="16" t="n"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="34" t="inlineStr">
+      <c r="G99" s="8" t="n"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="85" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C100" s="49" t="n"/>
+      <c r="D100" s="49" t="n"/>
+      <c r="E100" s="86" t="n"/>
+      <c r="F100" s="20" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G100" s="16" t="n"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="34" t="inlineStr">
         <is>
           <t>NÜVE ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C56" s="35" t="n"/>
-      <c r="D56" s="35" t="n"/>
-      <c r="E56" s="35" t="n"/>
-      <c r="F56" s="35" t="n"/>
-      <c r="G56" s="35" t="n"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="7" t="inlineStr">
+      <c r="C101" s="35" t="n"/>
+      <c r="D101" s="35" t="n"/>
+      <c r="E101" s="35" t="n"/>
+      <c r="F101" s="35" t="n"/>
+      <c r="G101" s="35" t="n"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C57" s="7" t="inlineStr">
+      <c r="C102" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D57" s="7" t="inlineStr">
+      <c r="D102" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E57" s="7" t="inlineStr">
+      <c r="E102" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F57" s="7" t="inlineStr">
+      <c r="F102" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G57" s="8" t="inlineStr">
+      <c r="G102" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="B58" s="28" t="inlineStr">
-        <is>
-          <t>255.0 mm</t>
-        </is>
-      </c>
-      <c r="C58" s="29" t="inlineStr">
+    <row r="103">
+      <c r="B103" s="28" t="inlineStr">
+        <is>
+          <t>195.0 mm</t>
+        </is>
+      </c>
+      <c r="C103" s="29" t="inlineStr">
         <is>
           <t>151.0 mm</t>
         </is>
       </c>
-      <c r="D58" s="29" t="inlineStr">
-        <is>
-          <t>258.0 mm</t>
-        </is>
-      </c>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="30" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="34" t="inlineStr">
+      <c r="D103" s="29" t="inlineStr">
+        <is>
+          <t>208.0 mm</t>
+        </is>
+      </c>
+      <c r="E103" s="29" t="inlineStr"/>
+      <c r="F103" s="29" t="inlineStr"/>
+      <c r="G103" s="30" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="34" t="inlineStr">
         <is>
           <t>TRAFO ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C59" s="35" t="n"/>
-      <c r="D59" s="35" t="n"/>
-      <c r="E59" s="35" t="n"/>
-      <c r="F59" s="35" t="n"/>
-      <c r="G59" s="35" t="n"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="7" t="inlineStr">
+      <c r="C104" s="35" t="n"/>
+      <c r="D104" s="35" t="n"/>
+      <c r="E104" s="35" t="n"/>
+      <c r="F104" s="35" t="n"/>
+      <c r="G104" s="35" t="n"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C60" s="7" t="inlineStr">
+      <c r="C105" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D60" s="7" t="inlineStr">
+      <c r="D105" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E60" s="7" t="inlineStr">
+      <c r="E105" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F60" s="7" t="inlineStr">
+      <c r="F105" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G60" s="8" t="inlineStr">
+      <c r="G105" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" s="28" t="inlineStr">
-        <is>
-          <t>277.0 mm</t>
-        </is>
-      </c>
-      <c r="C61" s="29" t="inlineStr">
-        <is>
-          <t>205.0 mm</t>
-        </is>
-      </c>
-      <c r="D61" s="29" t="inlineStr">
-        <is>
-          <t>215.0 mm</t>
-        </is>
-      </c>
-      <c r="E61" s="29" t="inlineStr">
-        <is>
-          <t>225.0 mm</t>
-        </is>
-      </c>
-      <c r="F61" s="29" t="inlineStr">
-        <is>
-          <t>167.0 mm</t>
-        </is>
-      </c>
-      <c r="G61" s="30" t="inlineStr">
+    <row r="106">
+      <c r="B106" s="28" t="inlineStr">
+        <is>
+          <t>195.0 mm</t>
+        </is>
+      </c>
+      <c r="C106" s="29" t="inlineStr">
+        <is>
+          <t>185.0 mm</t>
+        </is>
+      </c>
+      <c r="D106" s="29" t="inlineStr">
+        <is>
+          <t>163.0 mm</t>
+        </is>
+      </c>
+      <c r="E106" s="29" t="inlineStr">
+        <is>
+          <t>153.0 mm</t>
+        </is>
+      </c>
+      <c r="F106" s="29" t="inlineStr">
+        <is>
+          <t>157.0 mm</t>
+        </is>
+      </c>
+      <c r="G106" s="30" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:I7"/>
+  <mergeCells count="36">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B3:F3"/>
@@ -2359,15 +2820,26 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
     <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I26:M26"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A71:E71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
@@ -2385,15 +2857,15 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" activeCellId="1" sqref="D1:D1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="18.33203125" customWidth="1" min="2" max="2"/>
-    <col width="9.77734375" customWidth="1" min="3" max="3"/>
-    <col width="10.88671875" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="19.33203125" customWidth="1" style="25" min="3" max="3"/>
+    <col width="19.77734375" customWidth="1" style="25" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2403,10 +2875,10 @@
           <t>Malzeme Listesi</t>
         </is>
       </c>
-      <c r="C1" s="88" t="n"/>
-      <c r="D1" s="88" t="n"/>
-      <c r="E1" s="88" t="n"/>
-      <c r="F1" s="89" t="n"/>
+      <c r="C1" s="87" t="n"/>
+      <c r="D1" s="87" t="n"/>
+      <c r="E1" s="87" t="n"/>
+      <c r="F1" s="88" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="42" t="n"/>
@@ -2415,12 +2887,12 @@
           <t>Urun Kodu</t>
         </is>
       </c>
-      <c r="C2" s="43" t="inlineStr">
+      <c r="C2" s="70" t="inlineStr">
         <is>
           <t>Cap/Kesit</t>
         </is>
       </c>
-      <c r="D2" s="43" t="inlineStr">
+      <c r="D2" s="70" t="inlineStr">
         <is>
           <t>Agirlik</t>
         </is>
@@ -2434,16 +2906,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010010X85AET</t>
-        </is>
-      </c>
-      <c r="C3" s="42" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="D3" s="42" t="n">
-        <v>0.09065757649870158</v>
+          <t>H010104X00EBT</t>
+        </is>
+      </c>
+      <c r="C3" s="71" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D3" s="71" t="n">
+        <v>8.424864904295147</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2454,16 +2926,16 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H010010X70AET</t>
-        </is>
-      </c>
-      <c r="C4" s="42" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="D4" s="42" t="n">
-        <v>0.06765753595402052</v>
+          <t>H010105X00EBT</t>
+        </is>
+      </c>
+      <c r="C4" s="71" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="71" t="n">
+        <v>2.007191380889429</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
@@ -2474,16 +2946,16 @@
       </c>
       <c r="B5" s="42" t="inlineStr">
         <is>
-          <t>H010011X00AET</t>
-        </is>
-      </c>
-      <c r="C5" s="42" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D5" s="42" t="n">
-        <v>0.2635542185188718</v>
+          <t>H010012X00AET</t>
+        </is>
+      </c>
+      <c r="C5" s="71" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D5" s="71" t="n">
+        <v>2.884955196364125</v>
       </c>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
@@ -2494,17 +2966,15 @@
       </c>
       <c r="B6" s="42" t="inlineStr">
         <is>
-          <t>H010310X85PFI</t>
-        </is>
-      </c>
-      <c r="C6" s="42" t="inlineStr">
-        <is>
-          <t>10.0x8.5</t>
-        </is>
-      </c>
-      <c r="D6" s="42" t="n">
-        <v>0</v>
-      </c>
+          <t>H0206412000TD</t>
+        </is>
+      </c>
+      <c r="C6" s="71" t="inlineStr">
+        <is>
+          <t>65.0 x 120.0 x 88.0</t>
+        </is>
+      </c>
+      <c r="D6" s="71" t="n"/>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>
@@ -2512,9 +2982,21 @@
       <c r="A7" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="n"/>
-      <c r="C7" s="42" t="n"/>
-      <c r="D7" s="42" t="n"/>
+      <c r="B7" s="42" t="inlineStr">
+        <is>
+          <t>Kesme Sac</t>
+        </is>
+      </c>
+      <c r="C7" s="71" t="inlineStr">
+        <is>
+          <t>0.5 mm</t>
+        </is>
+      </c>
+      <c r="D7" s="71" t="inlineStr">
+        <is>
+          <t>71.07 kg</t>
+        </is>
+      </c>
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
     </row>
@@ -2523,8 +3005,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="42" t="n"/>
-      <c r="C8" s="42" t="n"/>
-      <c r="D8" s="42" t="n"/>
+      <c r="C8" s="71" t="n"/>
+      <c r="D8" s="71" t="n"/>
       <c r="E8" s="42" t="n"/>
       <c r="F8" s="42" t="n"/>
     </row>
@@ -2533,8 +3015,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="42" t="n"/>
-      <c r="C9" s="42" t="n"/>
-      <c r="D9" s="42" t="n"/>
+      <c r="C9" s="71" t="n"/>
+      <c r="D9" s="71" t="n"/>
       <c r="E9" s="42" t="n"/>
       <c r="F9" s="42" t="n"/>
     </row>
@@ -2543,8 +3025,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="42" t="n"/>
-      <c r="C10" s="42" t="n"/>
-      <c r="D10" s="42" t="n"/>
+      <c r="C10" s="71" t="n"/>
+      <c r="D10" s="71" t="n"/>
       <c r="E10" s="42" t="n"/>
       <c r="F10" s="42" t="n"/>
     </row>
@@ -2553,8 +3035,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="42" t="n"/>
-      <c r="C11" s="42" t="n"/>
-      <c r="D11" s="42" t="n"/>
+      <c r="C11" s="71" t="n"/>
+      <c r="D11" s="71" t="n"/>
       <c r="E11" s="42" t="n"/>
       <c r="F11" s="42" t="n"/>
     </row>
@@ -2563,8 +3045,8 @@
         <v>10</v>
       </c>
       <c r="B12" s="42" t="n"/>
-      <c r="C12" s="42" t="n"/>
-      <c r="D12" s="42" t="n"/>
+      <c r="C12" s="71" t="n"/>
+      <c r="D12" s="71" t="n"/>
       <c r="E12" s="42" t="n"/>
       <c r="F12" s="42" t="n"/>
     </row>
@@ -2573,8 +3055,8 @@
         <v>11</v>
       </c>
       <c r="B13" s="42" t="n"/>
-      <c r="C13" s="42" t="n"/>
-      <c r="D13" s="42" t="n"/>
+      <c r="C13" s="71" t="n"/>
+      <c r="D13" s="71" t="n"/>
       <c r="E13" s="42" t="n"/>
       <c r="F13" s="42" t="n"/>
     </row>
@@ -2583,8 +3065,8 @@
         <v>12</v>
       </c>
       <c r="B14" s="42" t="n"/>
-      <c r="C14" s="42" t="n"/>
-      <c r="D14" s="42" t="n"/>
+      <c r="C14" s="71" t="n"/>
+      <c r="D14" s="71" t="n"/>
       <c r="E14" s="42" t="n"/>
       <c r="F14" s="42" t="n"/>
     </row>
@@ -2593,8 +3075,8 @@
         <v>13</v>
       </c>
       <c r="B15" s="42" t="n"/>
-      <c r="C15" s="42" t="n"/>
-      <c r="D15" s="42" t="n"/>
+      <c r="C15" s="71" t="n"/>
+      <c r="D15" s="71" t="n"/>
       <c r="E15" s="42" t="n"/>
       <c r="F15" s="42" t="n"/>
     </row>
@@ -2603,8 +3085,8 @@
         <v>14</v>
       </c>
       <c r="B16" s="42" t="n"/>
-      <c r="C16" s="42" t="n"/>
-      <c r="D16" s="42" t="n"/>
+      <c r="C16" s="71" t="n"/>
+      <c r="D16" s="71" t="n"/>
       <c r="E16" s="42" t="n"/>
       <c r="F16" s="42" t="n"/>
     </row>
@@ -2613,8 +3095,8 @@
         <v>15</v>
       </c>
       <c r="B17" s="42" t="n"/>
-      <c r="C17" s="42" t="n"/>
-      <c r="D17" s="42" t="n"/>
+      <c r="C17" s="71" t="n"/>
+      <c r="D17" s="71" t="n"/>
       <c r="E17" s="42" t="n"/>
       <c r="F17" s="42" t="n"/>
     </row>
@@ -2623,8 +3105,8 @@
         <v>16</v>
       </c>
       <c r="B18" s="42" t="n"/>
-      <c r="C18" s="42" t="n"/>
-      <c r="D18" s="42" t="n"/>
+      <c r="C18" s="71" t="n"/>
+      <c r="D18" s="71" t="n"/>
       <c r="E18" s="42" t="n"/>
       <c r="F18" s="42" t="n"/>
     </row>
@@ -2633,8 +3115,8 @@
         <v>17</v>
       </c>
       <c r="B19" s="42" t="n"/>
-      <c r="C19" s="42" t="n"/>
-      <c r="D19" s="42" t="n"/>
+      <c r="C19" s="71" t="n"/>
+      <c r="D19" s="71" t="n"/>
       <c r="E19" s="42" t="n"/>
       <c r="F19" s="42" t="n"/>
     </row>
@@ -2643,8 +3125,8 @@
         <v>18</v>
       </c>
       <c r="B20" s="42" t="n"/>
-      <c r="C20" s="42" t="n"/>
-      <c r="D20" s="42" t="n"/>
+      <c r="C20" s="71" t="n"/>
+      <c r="D20" s="71" t="n"/>
       <c r="E20" s="42" t="n"/>
       <c r="F20" s="42" t="n"/>
     </row>
@@ -2653,8 +3135,8 @@
         <v>19</v>
       </c>
       <c r="B21" s="42" t="n"/>
-      <c r="C21" s="42" t="n"/>
-      <c r="D21" s="42" t="n"/>
+      <c r="C21" s="71" t="n"/>
+      <c r="D21" s="71" t="n"/>
       <c r="E21" s="42" t="n"/>
       <c r="F21" s="42" t="n"/>
     </row>
@@ -2663,8 +3145,8 @@
         <v>20</v>
       </c>
       <c r="B22" s="42" t="n"/>
-      <c r="C22" s="42" t="n"/>
-      <c r="D22" s="42" t="n"/>
+      <c r="C22" s="71" t="n"/>
+      <c r="D22" s="71" t="n"/>
       <c r="E22" s="42" t="n"/>
       <c r="F22" s="42" t="n"/>
     </row>
@@ -2673,8 +3155,8 @@
         <v>21</v>
       </c>
       <c r="B23" s="42" t="n"/>
-      <c r="C23" s="42" t="n"/>
-      <c r="D23" s="42" t="n"/>
+      <c r="C23" s="71" t="n"/>
+      <c r="D23" s="71" t="n"/>
       <c r="E23" s="42" t="n"/>
       <c r="F23" s="42" t="n"/>
     </row>
@@ -2683,8 +3165,8 @@
         <v>22</v>
       </c>
       <c r="B24" s="42" t="n"/>
-      <c r="C24" s="42" t="n"/>
-      <c r="D24" s="42" t="n"/>
+      <c r="C24" s="71" t="n"/>
+      <c r="D24" s="71" t="n"/>
       <c r="E24" s="42" t="n"/>
       <c r="F24" s="42" t="n"/>
     </row>
@@ -2693,8 +3175,8 @@
         <v>23</v>
       </c>
       <c r="B25" s="42" t="n"/>
-      <c r="C25" s="42" t="n"/>
-      <c r="D25" s="42" t="n"/>
+      <c r="C25" s="71" t="n"/>
+      <c r="D25" s="71" t="n"/>
       <c r="E25" s="42" t="n"/>
       <c r="F25" s="42" t="n"/>
     </row>
@@ -2703,8 +3185,8 @@
         <v>24</v>
       </c>
       <c r="B26" s="42" t="n"/>
-      <c r="C26" s="42" t="n"/>
-      <c r="D26" s="42" t="n"/>
+      <c r="C26" s="71" t="n"/>
+      <c r="D26" s="71" t="n"/>
       <c r="E26" s="42" t="n"/>
       <c r="F26" s="42" t="n"/>
     </row>
@@ -2713,8 +3195,8 @@
         <v>25</v>
       </c>
       <c r="B27" s="42" t="n"/>
-      <c r="C27" s="42" t="n"/>
-      <c r="D27" s="42" t="n"/>
+      <c r="C27" s="71" t="n"/>
+      <c r="D27" s="71" t="n"/>
       <c r="E27" s="42" t="n"/>
       <c r="F27" s="42" t="n"/>
     </row>
@@ -2723,8 +3205,8 @@
         <v>26</v>
       </c>
       <c r="B28" s="42" t="n"/>
-      <c r="C28" s="42" t="n"/>
-      <c r="D28" s="42" t="n"/>
+      <c r="C28" s="71" t="n"/>
+      <c r="D28" s="71" t="n"/>
       <c r="E28" s="42" t="n"/>
       <c r="F28" s="42" t="n"/>
     </row>
@@ -2733,8 +3215,8 @@
         <v>27</v>
       </c>
       <c r="B29" s="42" t="n"/>
-      <c r="C29" s="42" t="n"/>
-      <c r="D29" s="42" t="n"/>
+      <c r="C29" s="71" t="n"/>
+      <c r="D29" s="71" t="n"/>
       <c r="E29" s="42" t="n"/>
       <c r="F29" s="42" t="n"/>
     </row>
@@ -2743,8 +3225,8 @@
         <v>28</v>
       </c>
       <c r="B30" s="42" t="n"/>
-      <c r="C30" s="42" t="n"/>
-      <c r="D30" s="42" t="n"/>
+      <c r="C30" s="71" t="n"/>
+      <c r="D30" s="71" t="n"/>
       <c r="E30" s="42" t="n"/>
       <c r="F30" s="42" t="n"/>
     </row>
@@ -2753,8 +3235,8 @@
         <v>29</v>
       </c>
       <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
+      <c r="C31" s="71" t="n"/>
+      <c r="D31" s="71" t="n"/>
       <c r="E31" s="42" t="n"/>
       <c r="F31" s="42" t="n"/>
     </row>
@@ -2763,8 +3245,8 @@
         <v>30</v>
       </c>
       <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
+      <c r="C32" s="71" t="n"/>
+      <c r="D32" s="71" t="n"/>
       <c r="E32" s="42" t="n"/>
       <c r="F32" s="42" t="n"/>
     </row>
@@ -2773,5 +3255,6 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="256" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/media/reports/izolasyon_mono.xlsx
+++ b/media/reports/izolasyon_mono.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9348" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M_Listesi" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="M_Listesi" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Rapor Sayfası'!$A$1:$O$68</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Rapor Sayfası'!$A$1:$O$68</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt formatCode="0.000" numFmtId="164"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="165"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -554,223 +554,223 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="89">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="24" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="5" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="16" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -843,7 +843,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>13</col>
@@ -854,17 +854,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -879,17 +879,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPr descr="Picture" id="2" name="Image 2"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -904,17 +904,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPr descr="Picture" id="3" name="Image 3"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -929,17 +929,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPr descr="Picture" id="4" name="Image 4"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -954,17 +954,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPr descr="Picture" id="5" name="Image 5"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -979,17 +979,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPr descr="Picture" id="6" name="Image 6"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1004,17 +1004,17 @@
     <ext cx="4286250" cy="3705225"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPr descr="Picture" id="7" name="Image 7"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1316,30 +1316,30 @@
   </sheetPr>
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.33203125" customWidth="1" min="1" max="1"/>
-    <col width="7.6640625" customWidth="1" style="12" min="2" max="2"/>
-    <col width="5.6640625" customWidth="1" style="12" min="3" max="3"/>
-    <col width="5.21875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="5.88671875" customWidth="1" style="12" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="12" min="6" max="6"/>
-    <col width="19.88671875" customWidth="1" style="12" min="7" max="7"/>
-    <col width="15.77734375" customWidth="1" style="12" min="8" max="8"/>
-    <col width="13.5546875" customWidth="1" style="12" min="9" max="9"/>
-    <col width="8.5546875" customWidth="1" style="12" min="10" max="10"/>
-    <col width="8.33203125" customWidth="1" style="12" min="11" max="11"/>
-    <col width="6.33203125" customWidth="1" style="12" min="12" max="12"/>
-    <col width="5.77734375" customWidth="1" style="12" min="13" max="13"/>
-    <col width="9" customWidth="1" style="12" min="14" max="14"/>
-    <col width="18.5546875" customWidth="1" style="12" min="15" max="15"/>
+    <col customWidth="1" max="1" min="1" width="13.33203125"/>
+    <col customWidth="1" max="2" min="2" style="12" width="7.6640625"/>
+    <col customWidth="1" max="3" min="3" style="12" width="5.6640625"/>
+    <col customWidth="1" max="4" min="4" style="12" width="5.21875"/>
+    <col customWidth="1" max="5" min="5" style="12" width="5.88671875"/>
+    <col customWidth="1" max="6" min="6" style="12" width="8.88671875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="19.88671875"/>
+    <col customWidth="1" max="8" min="8" style="12" width="15.77734375"/>
+    <col customWidth="1" max="9" min="9" style="12" width="13.5546875"/>
+    <col customWidth="1" max="10" min="10" style="12" width="8.5546875"/>
+    <col customWidth="1" max="11" min="11" style="12" width="8.33203125"/>
+    <col customWidth="1" max="12" min="12" style="12" width="6.33203125"/>
+    <col customWidth="1" max="13" min="13" style="12" width="5.77734375"/>
+    <col customWidth="1" max="14" min="14" style="12" width="9"/>
+    <col customWidth="1" max="15" min="15" style="12" width="18.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="1" thickBot="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Trafo Tipi :</t>
@@ -1366,11 +1366,11 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="57" t="n">
-        <v>44321.49918487758</v>
+        <v>44322.55674535677</v>
       </c>
       <c r="O1" s="50" t="n"/>
     </row>
-    <row r="2" ht="16.2" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="16.2" r="2" thickBot="1">
       <c r="A2" s="58" t="inlineStr">
         <is>
           <t>Değerler</t>
@@ -1544,12 +1544,12 @@
       <c r="K6" s="76" t="n"/>
       <c r="L6" s="77" t="inlineStr">
         <is>
-          <t>71.07 kg(Kesme Sac)</t>
+          <t>71.071 kg(Kesme Sac)</t>
         </is>
       </c>
       <c r="O6" s="76" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="7" thickBot="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Frekans :</t>
@@ -1582,10 +1582,10 @@
       <c r="N7" s="31" t="n"/>
       <c r="O7" s="33" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="8" thickBot="1">
       <c r="A8" s="1" t="n"/>
     </row>
-    <row r="9" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="9" thickBot="1">
       <c r="A9" s="48" t="inlineStr">
         <is>
           <t>Primer</t>
@@ -1807,7 +1807,7 @@
       <c r="M18" s="25" t="n"/>
       <c r="O18" s="2" t="n"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="19">
       <c r="A19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="20">
       <c r="A20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
@@ -1865,7 +1865,7 @@
       <c r="L20" s="26" t="n"/>
       <c r="M20" s="26" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="21">
       <c r="A21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
@@ -1885,7 +1885,7 @@
       <c r="L21" s="24" t="n"/>
       <c r="M21" s="24" t="n"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="22">
       <c r="A22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
@@ -1905,7 +1905,7 @@
       <c r="L22" s="26" t="n"/>
       <c r="M22" s="26" t="n"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="23">
       <c r="A23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
@@ -1925,7 +1925,7 @@
       <c r="L23" s="24" t="n"/>
       <c r="M23" s="24" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="24">
       <c r="A24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
@@ -1945,7 +1945,7 @@
       <c r="L24" s="26" t="n"/>
       <c r="M24" s="26" t="n"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="25">
       <c r="A25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
@@ -1971,14 +1971,14 @@
       <c r="M25" s="24" t="n"/>
       <c r="O25" s="2" t="n"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="26">
       <c r="A26" s="80" t="inlineStr">
         <is>
           <t>4 NOLU KADEME:</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="27">
       <c r="A27" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="28">
       <c r="A28" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
@@ -2000,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="29" thickBot="1">
       <c r="A29" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
@@ -2010,7 +2010,7 @@
         <v>3.141592653589793</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="30" thickBot="1">
       <c r="A30" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
@@ -2020,7 +2020,7 @@
         <v>9.424777960769379</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="31" thickBot="1">
       <c r="A31" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="32" thickBot="1">
       <c r="A32" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
@@ -2040,7 +2040,7 @@
         <v>2.102922</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="33" thickBot="1">
       <c r="B33" s="82" t="inlineStr"/>
       <c r="C33" s="81" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="34" thickBot="1">
       <c r="A34" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="35" thickBot="1">
       <c r="A35" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
@@ -2073,35 +2073,35 @@
         <v>0.05747676146456948</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="36" thickBot="1">
       <c r="A36" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="37" thickBot="1">
       <c r="A37" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="38" thickBot="1">
       <c r="A38" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="39" thickBot="1">
       <c r="A39" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="40" thickBot="1">
       <c r="A40" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
@@ -2113,14 +2113,14 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="41" thickBot="1">
       <c r="A41" s="80" t="inlineStr">
         <is>
           <t>3 NOLU KADEME:</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="42" thickBot="1">
       <c r="A42" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
@@ -2841,9 +2841,9 @@
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A71:E71"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" horizontalDpi="300" orientation="portrait" paperSize="9" scale="58" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2862,10 +2862,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="19.33203125" customWidth="1" style="25" min="3" max="3"/>
-    <col width="19.77734375" customWidth="1" style="25" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="4.44140625"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" style="25" width="19.33203125"/>
+    <col customWidth="1" max="4" min="4" style="25" width="19.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="D7" s="71" t="inlineStr">
         <is>
-          <t>71.07 kg</t>
+          <t>71.071 kg</t>
         </is>
       </c>
       <c r="E7" s="42" t="n"/>
@@ -3254,7 +3254,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="256" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="256" verticalDpi="300"/>
 </worksheet>
 </file>